--- a/raw_data/20200818_saline/20200818_Sensor2_Test_61.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_61.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E75D762-9FBE-4040-B883-B43305DE61B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>54371.639009</v>
+        <v>54371.639008999999</v>
       </c>
       <c r="B2" s="1">
-        <v>15.103233</v>
+        <v>15.103232999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1243.280000</v>
+        <v>1243.28</v>
       </c>
       <c r="D2" s="1">
-        <v>-301.615000</v>
+        <v>-301.61500000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>54381.753956</v>
@@ -496,193 +912,193 @@
         <v>15.106043</v>
       </c>
       <c r="H2" s="1">
-        <v>1267.210000</v>
+        <v>1267.21</v>
       </c>
       <c r="I2" s="1">
-        <v>-261.264000</v>
+        <v>-261.26400000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>54391.871816</v>
+        <v>54391.871815999999</v>
       </c>
       <c r="L2" s="1">
         <v>15.108853</v>
       </c>
       <c r="M2" s="1">
-        <v>1301.470000</v>
+        <v>1301.47</v>
       </c>
       <c r="N2" s="1">
-        <v>-199.755000</v>
+        <v>-199.755</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>54402.077533</v>
+        <v>54402.077533000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>15.111688</v>
+        <v>15.111687999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1313.240000</v>
+        <v>1313.24</v>
       </c>
       <c r="S2" s="1">
-        <v>-182.209000</v>
+        <v>-182.209</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>54412.321867</v>
+        <v>54412.321866999999</v>
       </c>
       <c r="V2" s="1">
-        <v>15.114534</v>
+        <v>15.114534000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1326.200000</v>
+        <v>1326.2</v>
       </c>
       <c r="X2" s="1">
-        <v>-168.921000</v>
+        <v>-168.92099999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>54422.424419</v>
+        <v>54422.424419000003</v>
       </c>
       <c r="AA2" s="1">
-        <v>15.117340</v>
+        <v>15.11734</v>
       </c>
       <c r="AB2" s="1">
-        <v>1343.300000</v>
+        <v>1343.3</v>
       </c>
       <c r="AC2" s="1">
-        <v>-167.211000</v>
+        <v>-167.21100000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>54433.012021</v>
+        <v>54433.012021000002</v>
       </c>
       <c r="AF2" s="1">
         <v>15.120281</v>
       </c>
       <c r="AG2" s="1">
-        <v>1356.130000</v>
+        <v>1356.13</v>
       </c>
       <c r="AH2" s="1">
-        <v>-177.117000</v>
+        <v>-177.11699999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>54443.462706</v>
+        <v>54443.462705999998</v>
       </c>
       <c r="AK2" s="1">
         <v>15.123184</v>
       </c>
       <c r="AL2" s="1">
-        <v>1376.630000</v>
+        <v>1376.63</v>
       </c>
       <c r="AM2" s="1">
-        <v>-207.035000</v>
+        <v>-207.035</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>54454.014618</v>
+        <v>54454.014618000001</v>
       </c>
       <c r="AP2" s="1">
         <v>15.126115</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1398.260000</v>
+        <v>1398.26</v>
       </c>
       <c r="AR2" s="1">
-        <v>-250.664000</v>
+        <v>-250.66399999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>54465.398262</v>
+        <v>54465.398262000002</v>
       </c>
       <c r="AU2" s="1">
         <v>15.129277</v>
       </c>
       <c r="AV2" s="1">
-        <v>1422.870000</v>
+        <v>1422.87</v>
       </c>
       <c r="AW2" s="1">
-        <v>-310.277000</v>
+        <v>-310.27699999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>54476.561223</v>
+        <v>54476.561222999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>15.132378</v>
+        <v>15.132377999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1442.230000</v>
+        <v>1442.23</v>
       </c>
       <c r="BB2" s="1">
-        <v>-361.929000</v>
+        <v>-361.92899999999997</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>54487.529753</v>
+        <v>54487.529753000003</v>
       </c>
       <c r="BE2" s="1">
         <v>15.135425</v>
       </c>
       <c r="BF2" s="1">
-        <v>1527.960000</v>
+        <v>1527.96</v>
       </c>
       <c r="BG2" s="1">
-        <v>-607.738000</v>
+        <v>-607.73800000000006</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>54498.851929</v>
+        <v>54498.851928999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>15.138570</v>
+        <v>15.13857</v>
       </c>
       <c r="BK2" s="1">
-        <v>1683.060000</v>
+        <v>1683.06</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1046.860000</v>
+        <v>-1046.8599999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>54509.871547</v>
+        <v>54509.871547000002</v>
       </c>
       <c r="BO2" s="1">
         <v>15.141631</v>
       </c>
       <c r="BP2" s="1">
-        <v>1978.180000</v>
+        <v>1978.18</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1805.310000</v>
+        <v>-1805.31</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>54520.648621</v>
@@ -691,437 +1107,437 @@
         <v>15.144625</v>
       </c>
       <c r="BU2" s="1">
-        <v>2362.800000</v>
+        <v>2362.8000000000002</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2679.220000</v>
+        <v>-2679.22</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>54531.409362</v>
+        <v>54531.409361999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>15.147614</v>
+        <v>15.147614000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2847.420000</v>
+        <v>2847.42</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3628.170000</v>
+        <v>-3628.17</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>54542.379840</v>
+        <v>54542.379840000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>15.150661</v>
+        <v>15.150660999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>4257.890000</v>
+        <v>4257.8900000000003</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5893.700000</v>
+        <v>-5893.7</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>54371.987241</v>
+        <v>54371.987241000003</v>
       </c>
       <c r="B3" s="1">
-        <v>15.103330</v>
+        <v>15.10333</v>
       </c>
       <c r="C3" s="1">
-        <v>1243.050000</v>
+        <v>1243.05</v>
       </c>
       <c r="D3" s="1">
-        <v>-301.770000</v>
+        <v>-301.77</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>54382.100627</v>
       </c>
       <c r="G3" s="1">
-        <v>15.106139</v>
+        <v>15.106139000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1266.310000</v>
+        <v>1266.31</v>
       </c>
       <c r="I3" s="1">
-        <v>-260.349000</v>
+        <v>-260.34899999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>54392.252283</v>
+        <v>54392.252283000002</v>
       </c>
       <c r="L3" s="1">
         <v>15.108959</v>
       </c>
       <c r="M3" s="1">
-        <v>1301.700000</v>
+        <v>1301.7</v>
       </c>
       <c r="N3" s="1">
-        <v>-199.931000</v>
+        <v>-199.93100000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>54402.460937</v>
+        <v>54402.460937000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>15.111795</v>
+        <v>15.111795000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1313.260000</v>
+        <v>1313.26</v>
       </c>
       <c r="S3" s="1">
-        <v>-182.200000</v>
+        <v>-182.2</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>54412.735562</v>
+        <v>54412.735562000002</v>
       </c>
       <c r="V3" s="1">
         <v>15.114649</v>
       </c>
       <c r="W3" s="1">
-        <v>1326.230000</v>
+        <v>1326.23</v>
       </c>
       <c r="X3" s="1">
-        <v>-169.170000</v>
+        <v>-169.17</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>54422.843038</v>
+        <v>54422.843037999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>15.117456</v>
+        <v>15.117456000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1343.330000</v>
+        <v>1343.33</v>
       </c>
       <c r="AC3" s="1">
-        <v>-167.356000</v>
+        <v>-167.35599999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>54433.414737</v>
+        <v>54433.414736999999</v>
       </c>
       <c r="AF3" s="1">
         <v>15.120393</v>
       </c>
       <c r="AG3" s="1">
-        <v>1356.040000</v>
+        <v>1356.04</v>
       </c>
       <c r="AH3" s="1">
-        <v>-177.054000</v>
+        <v>-177.054</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>54443.834722</v>
       </c>
       <c r="AK3" s="1">
-        <v>15.123287</v>
+        <v>15.123286999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1376.670000</v>
+        <v>1376.67</v>
       </c>
       <c r="AM3" s="1">
-        <v>-207.048000</v>
+        <v>-207.048</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>54454.398518</v>
+        <v>54454.398518000002</v>
       </c>
       <c r="AP3" s="1">
         <v>15.126222</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1398.260000</v>
+        <v>1398.26</v>
       </c>
       <c r="AR3" s="1">
-        <v>-250.703000</v>
+        <v>-250.703</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>54465.766790</v>
+        <v>54465.766790000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>15.129380</v>
+        <v>15.129379999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1422.850000</v>
+        <v>1422.85</v>
       </c>
       <c r="AW3" s="1">
-        <v>-310.231000</v>
+        <v>-310.23099999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>54477.303733</v>
+        <v>54477.303733000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>15.132584</v>
       </c>
       <c r="BA3" s="1">
-        <v>1442.250000</v>
+        <v>1442.25</v>
       </c>
       <c r="BB3" s="1">
-        <v>-361.904000</v>
+        <v>-361.904</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>54488.269287</v>
+        <v>54488.269287000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>15.135630</v>
+        <v>15.135630000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1527.970000</v>
+        <v>1527.97</v>
       </c>
       <c r="BG3" s="1">
-        <v>-607.761000</v>
+        <v>-607.76099999999997</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>54499.258250</v>
+        <v>54499.258249999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>15.138683</v>
       </c>
       <c r="BK3" s="1">
-        <v>1682.940000</v>
+        <v>1682.94</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1046.940000</v>
+        <v>-1046.94</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>54510.310506</v>
+        <v>54510.310506000002</v>
       </c>
       <c r="BO3" s="1">
         <v>15.141753</v>
       </c>
       <c r="BP3" s="1">
-        <v>1977.990000</v>
+        <v>1977.99</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1805.540000</v>
+        <v>-1805.54</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>54521.152095</v>
+        <v>54521.152094999998</v>
       </c>
       <c r="BT3" s="1">
         <v>15.144764</v>
       </c>
       <c r="BU3" s="1">
-        <v>2362.820000</v>
+        <v>2362.8200000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2679.790000</v>
+        <v>-2679.79</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>54532.181597</v>
+        <v>54532.181597000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>15.147828</v>
+        <v>15.147828000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2847.480000</v>
+        <v>2847.48</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3629.200000</v>
+        <v>-3629.2</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>54543.266190</v>
+        <v>54543.266190000002</v>
       </c>
       <c r="CD3" s="1">
         <v>15.150907</v>
       </c>
       <c r="CE3" s="1">
-        <v>4271.660000</v>
+        <v>4271.66</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5908.260000</v>
+        <v>-5908.26</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>54372.329937</v>
+        <v>54372.329937000002</v>
       </c>
       <c r="B4" s="1">
         <v>15.103425</v>
       </c>
       <c r="C4" s="1">
-        <v>1243.270000</v>
+        <v>1243.27</v>
       </c>
       <c r="D4" s="1">
-        <v>-301.559000</v>
+        <v>-301.55900000000003</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>54382.445381</v>
+        <v>54382.445380999998</v>
       </c>
       <c r="G4" s="1">
         <v>15.106235</v>
       </c>
       <c r="H4" s="1">
-        <v>1267.360000</v>
+        <v>1267.3599999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-260.769000</v>
+        <v>-260.76900000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>54392.676325</v>
       </c>
       <c r="L4" s="1">
-        <v>15.109077</v>
+        <v>15.109076999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1301.430000</v>
+        <v>1301.43</v>
       </c>
       <c r="N4" s="1">
-        <v>-199.695000</v>
+        <v>-199.69499999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>54402.883510</v>
+        <v>54402.88351</v>
       </c>
       <c r="Q4" s="1">
         <v>15.111912</v>
       </c>
       <c r="R4" s="1">
-        <v>1313.300000</v>
+        <v>1313.3</v>
       </c>
       <c r="S4" s="1">
-        <v>-182.195000</v>
+        <v>-182.19499999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>54413.049351</v>
+        <v>54413.049351000001</v>
       </c>
       <c r="V4" s="1">
-        <v>15.114736</v>
+        <v>15.114736000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1326.220000</v>
+        <v>1326.22</v>
       </c>
       <c r="X4" s="1">
-        <v>-169.094000</v>
+        <v>-169.09399999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>54423.267581</v>
       </c>
       <c r="AA4" s="1">
-        <v>15.117574</v>
+        <v>15.117573999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1343.320000</v>
+        <v>1343.32</v>
       </c>
       <c r="AC4" s="1">
-        <v>-167.471000</v>
+        <v>-167.471</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>54433.758003</v>
+        <v>54433.758003000003</v>
       </c>
       <c r="AF4" s="1">
         <v>15.120488</v>
       </c>
       <c r="AG4" s="1">
-        <v>1356.180000</v>
+        <v>1356.18</v>
       </c>
       <c r="AH4" s="1">
-        <v>-176.970000</v>
+        <v>-176.97</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>54444.182913</v>
+        <v>54444.182912999997</v>
       </c>
       <c r="AK4" s="1">
         <v>15.123384</v>
       </c>
       <c r="AL4" s="1">
-        <v>1376.630000</v>
+        <v>1376.63</v>
       </c>
       <c r="AM4" s="1">
-        <v>-207.027000</v>
+        <v>-207.02699999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>54454.763076</v>
+        <v>54454.763076000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>15.126323</v>
+        <v>15.126322999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1398.250000</v>
+        <v>1398.25</v>
       </c>
       <c r="AR4" s="1">
-        <v>-250.661000</v>
+        <v>-250.661</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>54466.491941</v>
@@ -1130,300 +1546,300 @@
         <v>15.129581</v>
       </c>
       <c r="AV4" s="1">
-        <v>1422.850000</v>
+        <v>1422.85</v>
       </c>
       <c r="AW4" s="1">
-        <v>-310.267000</v>
+        <v>-310.267</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>54477.663861</v>
+        <v>54477.663861000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>15.132684</v>
+        <v>15.132683999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1442.230000</v>
+        <v>1442.23</v>
       </c>
       <c r="BB4" s="1">
-        <v>-361.983000</v>
+        <v>-361.983</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>54488.632390</v>
+        <v>54488.632389999999</v>
       </c>
       <c r="BE4" s="1">
         <v>15.135731</v>
       </c>
       <c r="BF4" s="1">
-        <v>1527.920000</v>
+        <v>1527.92</v>
       </c>
       <c r="BG4" s="1">
-        <v>-607.688000</v>
+        <v>-607.68799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>54499.632634</v>
+        <v>54499.632634000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>15.138787</v>
+        <v>15.138787000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.080000</v>
+        <v>1683.08</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1047.000000</v>
+        <v>-1047</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>54511.039625</v>
+        <v>54511.039624999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>15.141955</v>
+        <v>15.141954999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1977.880000</v>
+        <v>1977.88</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1805.530000</v>
+        <v>-1805.53</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>54521.895595</v>
+        <v>54521.895595000002</v>
       </c>
       <c r="BT4" s="1">
         <v>15.144971</v>
       </c>
       <c r="BU4" s="1">
-        <v>2363.420000</v>
+        <v>2363.42</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2679.950000</v>
+        <v>-2679.95</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>54532.350733</v>
+        <v>54532.350732999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>15.147875</v>
+        <v>15.147875000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2847.190000</v>
+        <v>2847.19</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3628.420000</v>
+        <v>-3628.42</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>54543.490880</v>
+        <v>54543.490879999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>15.150970</v>
+        <v>15.150969999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4260.700000</v>
+        <v>4260.7</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5894.520000</v>
+        <v>-5894.52</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>54372.755504</v>
+        <v>54372.755504000001</v>
       </c>
       <c r="B5" s="1">
         <v>15.103543</v>
       </c>
       <c r="C5" s="1">
-        <v>1242.920000</v>
+        <v>1242.92</v>
       </c>
       <c r="D5" s="1">
-        <v>-301.412000</v>
+        <v>-301.41199999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>54382.861031</v>
       </c>
       <c r="G5" s="1">
-        <v>15.106350</v>
+        <v>15.106350000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1267.050000</v>
+        <v>1267.05</v>
       </c>
       <c r="I5" s="1">
-        <v>-261.322000</v>
+        <v>-261.322</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>54392.974917</v>
       </c>
       <c r="L5" s="1">
-        <v>15.109160</v>
+        <v>15.109159999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1301.510000</v>
+        <v>1301.51</v>
       </c>
       <c r="N5" s="1">
-        <v>-199.677000</v>
+        <v>-199.67699999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>54403.178648</v>
+        <v>54403.178648000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>15.111994</v>
+        <v>15.111993999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1313.350000</v>
+        <v>1313.35</v>
       </c>
       <c r="S5" s="1">
-        <v>-182.192000</v>
+        <v>-182.19200000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>54413.389787</v>
       </c>
       <c r="V5" s="1">
-        <v>15.114830</v>
+        <v>15.11483</v>
       </c>
       <c r="W5" s="1">
-        <v>1326.240000</v>
+        <v>1326.24</v>
       </c>
       <c r="X5" s="1">
-        <v>-169.179000</v>
+        <v>-169.179</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>54423.556253</v>
+        <v>54423.556253000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>15.117655</v>
+        <v>15.117654999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1343.370000</v>
+        <v>1343.37</v>
       </c>
       <c r="AC5" s="1">
-        <v>-167.407000</v>
+        <v>-167.40700000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>54434.102190</v>
+        <v>54434.102189999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>15.120584</v>
+        <v>15.120583999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1356.130000</v>
+        <v>1356.13</v>
       </c>
       <c r="AH5" s="1">
-        <v>-177.272000</v>
+        <v>-177.27199999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>54444.878800</v>
+        <v>54444.878799999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>15.123577</v>
+        <v>15.123576999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1376.660000</v>
+        <v>1376.66</v>
       </c>
       <c r="AM5" s="1">
-        <v>-207.020000</v>
+        <v>-207.02</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>54455.480259</v>
+        <v>54455.480259000004</v>
       </c>
       <c r="AP5" s="1">
         <v>15.126522</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1398.230000</v>
+        <v>1398.23</v>
       </c>
       <c r="AR5" s="1">
-        <v>-250.694000</v>
+        <v>-250.69399999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>54466.882823</v>
       </c>
       <c r="AU5" s="1">
-        <v>15.129690</v>
+        <v>15.12969</v>
       </c>
       <c r="AV5" s="1">
-        <v>1422.830000</v>
+        <v>1422.83</v>
       </c>
       <c r="AW5" s="1">
-        <v>-310.311000</v>
+        <v>-310.31099999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>54478.024422</v>
+        <v>54478.024422000002</v>
       </c>
       <c r="AZ5" s="1">
         <v>15.132785</v>
       </c>
       <c r="BA5" s="1">
-        <v>1442.220000</v>
+        <v>1442.22</v>
       </c>
       <c r="BB5" s="1">
-        <v>-361.972000</v>
+        <v>-361.97199999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>54488.993447</v>
+        <v>54488.993447000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>15.135832</v>
+        <v>15.135832000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1527.930000</v>
+        <v>1527.93</v>
       </c>
       <c r="BG5" s="1">
-        <v>-607.716000</v>
+        <v>-607.71600000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>54500.310199</v>
@@ -1432,270 +1848,270 @@
         <v>15.138975</v>
       </c>
       <c r="BK5" s="1">
-        <v>1682.990000</v>
+        <v>1682.99</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1046.860000</v>
+        <v>-1046.8599999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>54511.546572</v>
+        <v>54511.546571999999</v>
       </c>
       <c r="BO5" s="1">
         <v>15.142096</v>
       </c>
       <c r="BP5" s="1">
-        <v>1977.860000</v>
+        <v>1977.86</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1805.410000</v>
+        <v>-1805.41</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>54522.014108</v>
+        <v>54522.014108000003</v>
       </c>
       <c r="BT5" s="1">
         <v>15.145004</v>
       </c>
       <c r="BU5" s="1">
-        <v>2363.120000</v>
+        <v>2363.12</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2680.560000</v>
+        <v>-2680.56</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>54532.777825</v>
+        <v>54532.777824999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>15.147994</v>
+        <v>15.147994000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2847.900000</v>
+        <v>2847.9</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3628.390000</v>
+        <v>-3628.39</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>54544.007213</v>
+        <v>54544.007212999997</v>
       </c>
       <c r="CD5" s="1">
         <v>15.151113</v>
       </c>
       <c r="CE5" s="1">
-        <v>4249.640000</v>
+        <v>4249.6400000000003</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5905.710000</v>
+        <v>-5905.71</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>54373.024832</v>
+        <v>54373.024832000003</v>
       </c>
       <c r="B6" s="1">
-        <v>15.103618</v>
+        <v>15.103618000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1242.900000</v>
+        <v>1242.9000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-301.525000</v>
+        <v>-301.52499999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>54383.160082</v>
+        <v>54383.160082000002</v>
       </c>
       <c r="G6" s="1">
-        <v>15.106433</v>
+        <v>15.106433000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1267.120000</v>
+        <v>1267.1199999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-260.373000</v>
+        <v>-260.37299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>54393.320630</v>
+        <v>54393.320630000002</v>
       </c>
       <c r="L6" s="1">
         <v>15.109256</v>
       </c>
       <c r="M6" s="1">
-        <v>1301.690000</v>
+        <v>1301.69</v>
       </c>
       <c r="N6" s="1">
-        <v>-200.123000</v>
+        <v>-200.12299999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>54403.531768</v>
+        <v>54403.531768000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>15.112092</v>
+        <v>15.112092000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1313.350000</v>
+        <v>1313.35</v>
       </c>
       <c r="S6" s="1">
-        <v>-182.205000</v>
+        <v>-182.20500000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>54413.734970</v>
+        <v>54413.734969999998</v>
       </c>
       <c r="V6" s="1">
-        <v>15.114926</v>
+        <v>15.114926000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1326.150000</v>
+        <v>1326.15</v>
       </c>
       <c r="X6" s="1">
-        <v>-169.119000</v>
+        <v>-169.119</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>54424.253133</v>
+        <v>54424.253132999998</v>
       </c>
       <c r="AA6" s="1">
         <v>15.117848</v>
       </c>
       <c r="AB6" s="1">
-        <v>1343.360000</v>
+        <v>1343.36</v>
       </c>
       <c r="AC6" s="1">
-        <v>-167.291000</v>
+        <v>-167.291</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>54434.786174</v>
+        <v>54434.786174000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>15.120774</v>
+        <v>15.120774000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1356.210000</v>
+        <v>1356.21</v>
       </c>
       <c r="AH6" s="1">
-        <v>-177.084000</v>
+        <v>-177.084</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>54445.224977</v>
+        <v>54445.224976999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>15.123674</v>
+        <v>15.123673999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1376.610000</v>
+        <v>1376.61</v>
       </c>
       <c r="AM6" s="1">
-        <v>-207.041000</v>
+        <v>-207.041</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>54455.867139</v>
+        <v>54455.867139000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>15.126630</v>
+        <v>15.12663</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1398.230000</v>
+        <v>1398.23</v>
       </c>
       <c r="AR6" s="1">
-        <v>-250.694000</v>
+        <v>-250.69399999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>54467.247879</v>
+        <v>54467.247879000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>15.129791</v>
+        <v>15.129791000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1422.830000</v>
+        <v>1422.83</v>
       </c>
       <c r="AW6" s="1">
-        <v>-310.285000</v>
+        <v>-310.28500000000003</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>54478.691043</v>
+        <v>54478.691042999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>15.132970</v>
+        <v>15.13297</v>
       </c>
       <c r="BA6" s="1">
-        <v>1442.210000</v>
+        <v>1442.21</v>
       </c>
       <c r="BB6" s="1">
-        <v>-361.947000</v>
+        <v>-361.947</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>54489.673958</v>
+        <v>54489.673957999999</v>
       </c>
       <c r="BE6" s="1">
         <v>15.136021</v>
       </c>
       <c r="BF6" s="1">
-        <v>1528.030000</v>
+        <v>1528.03</v>
       </c>
       <c r="BG6" s="1">
-        <v>-607.687000</v>
+        <v>-607.68700000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>54500.757560</v>
+        <v>54500.757559999998</v>
       </c>
       <c r="BJ6" s="1">
         <v>15.139099</v>
       </c>
       <c r="BK6" s="1">
-        <v>1682.910000</v>
+        <v>1682.91</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1046.920000</v>
+        <v>-1046.92</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>54511.965161</v>
@@ -1704,225 +2120,225 @@
         <v>15.142213</v>
       </c>
       <c r="BP6" s="1">
-        <v>1977.600000</v>
+        <v>1977.6</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1805.500000</v>
+        <v>-1805.5</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>54522.428763</v>
+        <v>54522.428763000004</v>
       </c>
       <c r="BT6" s="1">
-        <v>15.145119</v>
+        <v>15.145118999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2363.520000</v>
+        <v>2363.52</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2680.470000</v>
+        <v>-2680.47</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>54533.224684</v>
+        <v>54533.224684000001</v>
       </c>
       <c r="BY6" s="1">
         <v>15.148118</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2847.870000</v>
+        <v>2847.87</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3629.070000</v>
+        <v>-3629.07</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>54544.524541</v>
+        <v>54544.524540999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>15.151257</v>
+        <v>15.151256999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4260.520000</v>
+        <v>4260.5200000000004</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5913.840000</v>
+        <v>-5913.84</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>54373.377487</v>
+        <v>54373.377486999998</v>
       </c>
       <c r="B7" s="1">
         <v>15.103716</v>
       </c>
       <c r="C7" s="1">
-        <v>1243.260000</v>
+        <v>1243.26</v>
       </c>
       <c r="D7" s="1">
-        <v>-301.644000</v>
+        <v>-301.64400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>54383.506290</v>
+        <v>54383.506289999998</v>
       </c>
       <c r="G7" s="1">
-        <v>15.106530</v>
+        <v>15.106529999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1267.590000</v>
+        <v>1267.5899999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-260.081000</v>
+        <v>-260.08100000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>54393.665877</v>
+        <v>54393.665876999999</v>
       </c>
       <c r="L7" s="1">
-        <v>15.109352</v>
+        <v>15.109351999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1301.520000</v>
+        <v>1301.52</v>
       </c>
       <c r="N7" s="1">
-        <v>-199.742000</v>
+        <v>-199.74199999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>54403.879960</v>
+        <v>54403.879959999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>15.112189</v>
+        <v>15.112189000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1313.220000</v>
+        <v>1313.22</v>
       </c>
       <c r="S7" s="1">
-        <v>-182.323000</v>
+        <v>-182.32300000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>54414.420969</v>
+        <v>54414.420968999999</v>
       </c>
       <c r="V7" s="1">
         <v>15.115117</v>
       </c>
       <c r="W7" s="1">
-        <v>1326.170000</v>
+        <v>1326.17</v>
       </c>
       <c r="X7" s="1">
-        <v>-169.249000</v>
+        <v>-169.249</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>54424.600827</v>
+        <v>54424.600827000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>15.117945</v>
+        <v>15.117945000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1343.410000</v>
+        <v>1343.41</v>
       </c>
       <c r="AC7" s="1">
-        <v>-167.160000</v>
+        <v>-167.16</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>54435.129437</v>
+        <v>54435.129437000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>15.120869</v>
+        <v>15.120869000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1356.390000</v>
+        <v>1356.39</v>
       </c>
       <c r="AH7" s="1">
-        <v>-177.172000</v>
+        <v>-177.172</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>54445.573200</v>
+        <v>54445.573199999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>15.123770</v>
+        <v>15.12377</v>
       </c>
       <c r="AL7" s="1">
-        <v>1376.630000</v>
+        <v>1376.63</v>
       </c>
       <c r="AM7" s="1">
-        <v>-207.030000</v>
+        <v>-207.03</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>54456.248602</v>
       </c>
       <c r="AP7" s="1">
-        <v>15.126736</v>
+        <v>15.126735999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1398.270000</v>
+        <v>1398.27</v>
       </c>
       <c r="AR7" s="1">
-        <v>-250.665000</v>
+        <v>-250.66499999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>54467.929346</v>
+        <v>54467.929345999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>15.129980</v>
+        <v>15.12998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1422.850000</v>
+        <v>1422.85</v>
       </c>
       <c r="AW7" s="1">
-        <v>-310.250000</v>
+        <v>-310.25</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>54479.099286</v>
+        <v>54479.099285999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>15.133083</v>
+        <v>15.133082999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1442.240000</v>
+        <v>1442.24</v>
       </c>
       <c r="BB7" s="1">
-        <v>-361.937000</v>
+        <v>-361.93700000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>54490.107462</v>
@@ -1931,862 +2347,862 @@
         <v>15.136141</v>
       </c>
       <c r="BF7" s="1">
-        <v>1527.960000</v>
+        <v>1527.96</v>
       </c>
       <c r="BG7" s="1">
-        <v>-607.715000</v>
+        <v>-607.71500000000003</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>54501.132535</v>
+        <v>54501.132534999997</v>
       </c>
       <c r="BJ7" s="1">
         <v>15.139203</v>
       </c>
       <c r="BK7" s="1">
-        <v>1683.010000</v>
+        <v>1683.01</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1046.930000</v>
+        <v>-1046.93</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>54512.362455</v>
+        <v>54512.362455000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>15.142323</v>
+        <v>15.142322999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1977.840000</v>
+        <v>1977.84</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1805.580000</v>
+        <v>-1805.58</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>54522.854857</v>
+        <v>54522.854856999998</v>
       </c>
       <c r="BT7" s="1">
         <v>15.145237</v>
       </c>
       <c r="BU7" s="1">
-        <v>2363.850000</v>
+        <v>2363.85</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2680.730000</v>
+        <v>-2680.73</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>54533.657692</v>
+        <v>54533.657692000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>15.148238</v>
+        <v>15.148237999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2847.540000</v>
+        <v>2847.54</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3628.810000</v>
+        <v>-3628.81</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>54545.092957</v>
+        <v>54545.092957000001</v>
       </c>
       <c r="CD7" s="1">
         <v>15.151415</v>
       </c>
       <c r="CE7" s="1">
-        <v>4259.540000</v>
+        <v>4259.54</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5914.270000</v>
+        <v>-5914.27</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>54373.718238</v>
+        <v>54373.718238000001</v>
       </c>
       <c r="B8" s="1">
         <v>15.103811</v>
       </c>
       <c r="C8" s="1">
-        <v>1243.160000</v>
+        <v>1243.1600000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-301.508000</v>
+        <v>-301.50799999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>54383.849066</v>
+        <v>54383.849066000002</v>
       </c>
       <c r="G8" s="1">
-        <v>15.106625</v>
+        <v>15.106624999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1267.980000</v>
+        <v>1267.98</v>
       </c>
       <c r="I8" s="1">
-        <v>-261.081000</v>
+        <v>-261.08100000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>54394.361266</v>
       </c>
       <c r="L8" s="1">
-        <v>15.109545</v>
+        <v>15.109545000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1301.830000</v>
+        <v>1301.83</v>
       </c>
       <c r="N8" s="1">
-        <v>-199.646000</v>
+        <v>-199.64599999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>54404.576875</v>
+        <v>54404.576874999999</v>
       </c>
       <c r="Q8" s="1">
         <v>15.112382</v>
       </c>
       <c r="R8" s="1">
-        <v>1313.200000</v>
+        <v>1313.2</v>
       </c>
       <c r="S8" s="1">
-        <v>-182.221000</v>
+        <v>-182.221</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>54414.766681</v>
+        <v>54414.766681000001</v>
       </c>
       <c r="V8" s="1">
-        <v>15.115213</v>
+        <v>15.115213000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1326.180000</v>
+        <v>1326.18</v>
       </c>
       <c r="X8" s="1">
-        <v>-169.318000</v>
+        <v>-169.31800000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>54424.950011</v>
+        <v>54424.950011000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>15.118042</v>
+        <v>15.118042000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1343.180000</v>
+        <v>1343.18</v>
       </c>
       <c r="AC8" s="1">
-        <v>-167.199000</v>
+        <v>-167.19900000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>54435.474621</v>
+        <v>54435.474621000001</v>
       </c>
       <c r="AF8" s="1">
         <v>15.120965</v>
       </c>
       <c r="AG8" s="1">
-        <v>1356.190000</v>
+        <v>1356.19</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.082000</v>
+        <v>-177.08199999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>54446.230367</v>
+        <v>54446.230366999996</v>
       </c>
       <c r="AK8" s="1">
         <v>15.123953</v>
       </c>
       <c r="AL8" s="1">
-        <v>1376.640000</v>
+        <v>1376.64</v>
       </c>
       <c r="AM8" s="1">
-        <v>-207.021000</v>
+        <v>-207.02099999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>54456.928866</v>
+        <v>54456.928866000002</v>
       </c>
       <c r="AP8" s="1">
         <v>15.126925</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1398.230000</v>
+        <v>1398.23</v>
       </c>
       <c r="AR8" s="1">
-        <v>-250.667000</v>
+        <v>-250.667</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>54468.376737</v>
+        <v>54468.376736999999</v>
       </c>
       <c r="AU8" s="1">
         <v>15.130105</v>
       </c>
       <c r="AV8" s="1">
-        <v>1422.820000</v>
+        <v>1422.82</v>
       </c>
       <c r="AW8" s="1">
-        <v>-310.259000</v>
+        <v>-310.25900000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>54479.485140</v>
+        <v>54479.485139999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>15.133190</v>
+        <v>15.133190000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1442.260000</v>
+        <v>1442.26</v>
       </c>
       <c r="BB8" s="1">
-        <v>-361.888000</v>
+        <v>-361.88799999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>54490.466596</v>
+        <v>54490.466595999998</v>
       </c>
       <c r="BE8" s="1">
         <v>15.136241</v>
       </c>
       <c r="BF8" s="1">
-        <v>1527.980000</v>
+        <v>1527.98</v>
       </c>
       <c r="BG8" s="1">
-        <v>-607.687000</v>
+        <v>-607.68700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>54501.508078</v>
+        <v>54501.508077999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>15.139308</v>
       </c>
       <c r="BK8" s="1">
-        <v>1683.000000</v>
+        <v>1683</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1046.860000</v>
+        <v>-1046.8599999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>54512.784587</v>
+        <v>54512.784587000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>15.142440</v>
+        <v>15.142440000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1977.760000</v>
+        <v>1977.76</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1805.710000</v>
+        <v>-1805.71</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>54523.270970</v>
+        <v>54523.270969999998</v>
       </c>
       <c r="BT8" s="1">
         <v>15.145353</v>
       </c>
       <c r="BU8" s="1">
-        <v>2364.310000</v>
+        <v>2364.31</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2680.800000</v>
+        <v>-2680.8</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>54534.078300</v>
+        <v>54534.078300000001</v>
       </c>
       <c r="BY8" s="1">
         <v>15.148355</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2847.460000</v>
+        <v>2847.46</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3628.390000</v>
+        <v>-3628.39</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>54545.594907</v>
+        <v>54545.594906999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>15.151554</v>
+        <v>15.151554000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4248.630000</v>
+        <v>4248.63</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5909.720000</v>
+        <v>-5909.72</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>54374.402224</v>
+        <v>54374.402223999998</v>
       </c>
       <c r="B9" s="1">
         <v>15.104001</v>
       </c>
       <c r="C9" s="1">
-        <v>1242.900000</v>
+        <v>1242.9000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-301.653000</v>
+        <v>-301.65300000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>54384.538496</v>
+        <v>54384.538496000001</v>
       </c>
       <c r="G9" s="1">
         <v>15.106816</v>
       </c>
       <c r="H9" s="1">
-        <v>1267.560000</v>
+        <v>1267.56</v>
       </c>
       <c r="I9" s="1">
-        <v>-261.332000</v>
+        <v>-261.33199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>54394.705955</v>
+        <v>54394.705954999998</v>
       </c>
       <c r="L9" s="1">
         <v>15.109641</v>
       </c>
       <c r="M9" s="1">
-        <v>1301.330000</v>
+        <v>1301.33</v>
       </c>
       <c r="N9" s="1">
-        <v>-200.071000</v>
+        <v>-200.071</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>54404.924038</v>
+        <v>54404.924037999997</v>
       </c>
       <c r="Q9" s="1">
         <v>15.112479</v>
       </c>
       <c r="R9" s="1">
-        <v>1313.210000</v>
+        <v>1313.21</v>
       </c>
       <c r="S9" s="1">
-        <v>-182.174000</v>
+        <v>-182.17400000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>54415.112888</v>
+        <v>54415.112888000003</v>
       </c>
       <c r="V9" s="1">
         <v>15.115309</v>
       </c>
       <c r="W9" s="1">
-        <v>1326.020000</v>
+        <v>1326.02</v>
       </c>
       <c r="X9" s="1">
-        <v>-169.017000</v>
+        <v>-169.017</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>54425.607210</v>
+        <v>54425.607210000002</v>
       </c>
       <c r="AA9" s="1">
         <v>15.118224</v>
       </c>
       <c r="AB9" s="1">
-        <v>1343.300000</v>
+        <v>1343.3</v>
       </c>
       <c r="AC9" s="1">
-        <v>-167.226000</v>
+        <v>-167.226</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>54436.122428</v>
+        <v>54436.122428000002</v>
       </c>
       <c r="AF9" s="1">
         <v>15.121145</v>
       </c>
       <c r="AG9" s="1">
-        <v>1356.090000</v>
+        <v>1356.09</v>
       </c>
       <c r="AH9" s="1">
-        <v>-177.261000</v>
+        <v>-177.261</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>54446.622702</v>
+        <v>54446.622702000001</v>
       </c>
       <c r="AK9" s="1">
         <v>15.124062</v>
       </c>
       <c r="AL9" s="1">
-        <v>1376.600000</v>
+        <v>1376.6</v>
       </c>
       <c r="AM9" s="1">
-        <v>-207.002000</v>
+        <v>-207.00200000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>54457.330866</v>
+        <v>54457.330865999997</v>
       </c>
       <c r="AP9" s="1">
         <v>15.127036</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1398.280000</v>
+        <v>1398.28</v>
       </c>
       <c r="AR9" s="1">
-        <v>-250.710000</v>
+        <v>-250.71</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>54468.741297</v>
       </c>
       <c r="AU9" s="1">
-        <v>15.130206</v>
+        <v>15.130205999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1422.810000</v>
+        <v>1422.81</v>
       </c>
       <c r="AW9" s="1">
-        <v>-310.222000</v>
+        <v>-310.22199999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>54479.844738</v>
       </c>
       <c r="AZ9" s="1">
-        <v>15.133290</v>
+        <v>15.133290000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1442.250000</v>
+        <v>1442.25</v>
       </c>
       <c r="BB9" s="1">
-        <v>-361.957000</v>
+        <v>-361.95699999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>54490.830629</v>
+        <v>54490.830628999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>15.136342</v>
+        <v>15.136342000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1527.890000</v>
+        <v>1527.89</v>
       </c>
       <c r="BG9" s="1">
-        <v>-607.722000</v>
+        <v>-607.72199999999998</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>54501.924150</v>
+        <v>54501.924149999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>15.139423</v>
+        <v>15.139423000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1682.990000</v>
+        <v>1682.99</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1046.920000</v>
+        <v>-1046.92</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>54513.180360</v>
+        <v>54513.180359999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>15.142550</v>
+        <v>15.14255</v>
       </c>
       <c r="BP9" s="1">
-        <v>1977.740000</v>
+        <v>1977.74</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1805.350000</v>
+        <v>-1805.35</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>54523.685642</v>
+        <v>54523.685641999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.145468</v>
+        <v>15.145467999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2364.440000</v>
+        <v>2364.44</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2681.050000</v>
+        <v>-2681.05</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>54534.501914</v>
       </c>
       <c r="BY9" s="1">
-        <v>15.148473</v>
+        <v>15.148472999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2846.630000</v>
+        <v>2846.63</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3628.460000</v>
+        <v>-3628.46</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>54546.125628</v>
+        <v>54546.125628000002</v>
       </c>
       <c r="CD9" s="1">
         <v>15.151702</v>
       </c>
       <c r="CE9" s="1">
-        <v>4263.360000</v>
+        <v>4263.3599999999997</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5912.940000</v>
+        <v>-5912.94</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>54374.741021</v>
+        <v>54374.741021000002</v>
       </c>
       <c r="B10" s="1">
-        <v>15.104095</v>
+        <v>15.104094999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1242.910000</v>
+        <v>1242.9100000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-301.772000</v>
+        <v>-301.77199999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>54384.882688</v>
+        <v>54384.882687999998</v>
       </c>
       <c r="G10" s="1">
-        <v>15.106912</v>
+        <v>15.106911999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1267.380000</v>
+        <v>1267.3800000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-259.822000</v>
+        <v>-259.822</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>54395.053682</v>
+        <v>54395.053681999998</v>
       </c>
       <c r="L10" s="1">
-        <v>15.109737</v>
+        <v>15.109737000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1301.610000</v>
+        <v>1301.6099999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-199.752000</v>
+        <v>-199.75200000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>54405.272230</v>
+        <v>54405.272230000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>15.112576</v>
+        <v>15.112576000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1313.260000</v>
+        <v>1313.26</v>
       </c>
       <c r="S10" s="1">
-        <v>-182.192000</v>
+        <v>-182.19200000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>54415.761624</v>
+        <v>54415.761623999999</v>
       </c>
       <c r="V10" s="1">
         <v>15.115489</v>
       </c>
       <c r="W10" s="1">
-        <v>1326.000000</v>
+        <v>1326</v>
       </c>
       <c r="X10" s="1">
-        <v>-169.040000</v>
+        <v>-169.04</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>54425.995577</v>
+        <v>54425.995577000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>15.118332</v>
+        <v>15.118332000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1343.300000</v>
+        <v>1343.3</v>
       </c>
       <c r="AC10" s="1">
-        <v>-167.164000</v>
+        <v>-167.16399999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>54436.501867</v>
+        <v>54436.501866999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>15.121251</v>
+        <v>15.121251000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1356.140000</v>
+        <v>1356.14</v>
       </c>
       <c r="AH10" s="1">
-        <v>-177.082000</v>
+        <v>-177.08199999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>54446.970926</v>
+        <v>54446.970926000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>15.124159</v>
+        <v>15.124159000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1376.620000</v>
+        <v>1376.62</v>
       </c>
       <c r="AM10" s="1">
-        <v>-207.006000</v>
+        <v>-207.006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>54457.717750</v>
+        <v>54457.717750000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>15.127144</v>
+        <v>15.127143999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1398.250000</v>
+        <v>1398.25</v>
       </c>
       <c r="AR10" s="1">
-        <v>-250.674000</v>
+        <v>-250.67400000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>54469.105361</v>
+        <v>54469.105361000002</v>
       </c>
       <c r="AU10" s="1">
         <v>15.130307</v>
       </c>
       <c r="AV10" s="1">
-        <v>1422.830000</v>
+        <v>1422.83</v>
       </c>
       <c r="AW10" s="1">
-        <v>-310.239000</v>
+        <v>-310.23899999999998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>54480.264882</v>
+        <v>54480.264882000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>15.133407</v>
       </c>
       <c r="BA10" s="1">
-        <v>1442.220000</v>
+        <v>1442.22</v>
       </c>
       <c r="BB10" s="1">
-        <v>-361.914000</v>
+        <v>-361.91399999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>54491.252227</v>
+        <v>54491.252226999997</v>
       </c>
       <c r="BE10" s="1">
         <v>15.136459</v>
       </c>
       <c r="BF10" s="1">
-        <v>1527.960000</v>
+        <v>1527.96</v>
       </c>
       <c r="BG10" s="1">
-        <v>-607.691000</v>
+        <v>-607.69100000000003</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>54502.289733</v>
+        <v>54502.289732999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>15.139525</v>
+        <v>15.139525000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1682.930000</v>
+        <v>1682.93</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1046.800000</v>
+        <v>-1046.8</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>54513.600501</v>
+        <v>54513.600501000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>15.142667</v>
+        <v>15.142666999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1977.700000</v>
+        <v>1977.7</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1805.390000</v>
+        <v>-1805.39</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>54524.099783</v>
+        <v>54524.099782999998</v>
       </c>
       <c r="BT10" s="1">
         <v>15.145583</v>
       </c>
       <c r="BU10" s="1">
-        <v>2364.970000</v>
+        <v>2364.9699999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2680.860000</v>
+        <v>-2680.86</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>54534.925998</v>
+        <v>54534.925997999999</v>
       </c>
       <c r="BY10" s="1">
         <v>15.148591</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2847.030000</v>
+        <v>2847.03</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3628.880000</v>
+        <v>-3628.88</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>54546.644939</v>
+        <v>54546.644938999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>15.151846</v>
+        <v>15.151846000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4257.880000</v>
+        <v>4257.88</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5915.550000</v>
+        <v>-5915.55</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>54375.086205</v>
       </c>
@@ -2794,315 +3210,315 @@
         <v>15.104191</v>
       </c>
       <c r="C11" s="1">
-        <v>1242.680000</v>
+        <v>1242.68</v>
       </c>
       <c r="D11" s="1">
-        <v>-301.553000</v>
+        <v>-301.553</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>54385.226447</v>
+        <v>54385.226447000001</v>
       </c>
       <c r="G11" s="1">
-        <v>15.107007</v>
+        <v>15.107006999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1267.360000</v>
+        <v>1267.3599999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-261.642000</v>
+        <v>-261.642</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>54395.706882</v>
+        <v>54395.706881999999</v>
       </c>
       <c r="L11" s="1">
         <v>15.109919</v>
       </c>
       <c r="M11" s="1">
-        <v>1301.720000</v>
+        <v>1301.72</v>
       </c>
       <c r="N11" s="1">
-        <v>-199.895000</v>
+        <v>-199.89500000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>54406.024164</v>
+        <v>54406.024164000002</v>
       </c>
       <c r="Q11" s="1">
         <v>15.112784</v>
       </c>
       <c r="R11" s="1">
-        <v>1313.310000</v>
+        <v>1313.31</v>
       </c>
       <c r="S11" s="1">
-        <v>-182.288000</v>
+        <v>-182.28800000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>54416.141094</v>
+        <v>54416.141093999999</v>
       </c>
       <c r="V11" s="1">
-        <v>15.115595</v>
+        <v>15.115595000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1326.000000</v>
+        <v>1326</v>
       </c>
       <c r="X11" s="1">
-        <v>-169.128000</v>
+        <v>-169.12799999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>54426.345257</v>
+        <v>54426.345257000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>15.118429</v>
+        <v>15.118429000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1343.220000</v>
+        <v>1343.22</v>
       </c>
       <c r="AC11" s="1">
-        <v>-167.325000</v>
+        <v>-167.32499999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>54436.847139</v>
+        <v>54436.847138999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>15.121346</v>
+        <v>15.121346000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1356.070000</v>
+        <v>1356.07</v>
       </c>
       <c r="AH11" s="1">
-        <v>-177.194000</v>
+        <v>-177.19399999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>54447.321069</v>
+        <v>54447.321068999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>15.124256</v>
+        <v>15.124256000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1376.630000</v>
+        <v>1376.63</v>
       </c>
       <c r="AM11" s="1">
-        <v>-207.020000</v>
+        <v>-207.02</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>54458.102157</v>
+        <v>54458.102157000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>15.127251</v>
+        <v>15.127250999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1398.200000</v>
+        <v>1398.2</v>
       </c>
       <c r="AR11" s="1">
-        <v>-250.666000</v>
+        <v>-250.666</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>54469.526976</v>
+        <v>54469.526976000001</v>
       </c>
       <c r="AU11" s="1">
         <v>15.130424</v>
       </c>
       <c r="AV11" s="1">
-        <v>1422.830000</v>
+        <v>1422.83</v>
       </c>
       <c r="AW11" s="1">
-        <v>-310.261000</v>
+        <v>-310.26100000000002</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>54480.560974</v>
       </c>
       <c r="AZ11" s="1">
-        <v>15.133489</v>
+        <v>15.133489000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1442.240000</v>
+        <v>1442.24</v>
       </c>
       <c r="BB11" s="1">
-        <v>-361.891000</v>
+        <v>-361.89100000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>54491.552803</v>
+        <v>54491.552802999999</v>
       </c>
       <c r="BE11" s="1">
         <v>15.136542</v>
       </c>
       <c r="BF11" s="1">
-        <v>1527.940000</v>
+        <v>1527.94</v>
       </c>
       <c r="BG11" s="1">
-        <v>-607.661000</v>
+        <v>-607.66099999999994</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>54502.663188</v>
+        <v>54502.663187999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>15.139629</v>
+        <v>15.139628999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1682.950000</v>
+        <v>1682.95</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1046.830000</v>
+        <v>-1046.83</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>54514.002261</v>
+        <v>54514.002261000001</v>
       </c>
       <c r="BO11" s="1">
         <v>15.142778</v>
       </c>
       <c r="BP11" s="1">
-        <v>1977.800000</v>
+        <v>1977.8</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1805.290000</v>
+        <v>-1805.29</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>54524.512984</v>
+        <v>54524.512984000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>15.145698</v>
+        <v>15.145697999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2365.070000</v>
+        <v>2365.0700000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2680.580000</v>
+        <v>-2680.58</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>54535.351033</v>
+        <v>54535.351032999999</v>
       </c>
       <c r="BY11" s="1">
         <v>15.148709</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2847.430000</v>
+        <v>2847.43</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3627.590000</v>
+        <v>-3627.59</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>54547.195003</v>
+        <v>54547.195003000001</v>
       </c>
       <c r="CD11" s="1">
         <v>15.151999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4249.900000</v>
+        <v>4249.8999999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5907.040000</v>
+        <v>-5907.04</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>54375.750349</v>
+        <v>54375.750349000002</v>
       </c>
       <c r="B12" s="1">
-        <v>15.104375</v>
+        <v>15.104374999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-301.571000</v>
+        <v>-301.57100000000003</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>54385.872237</v>
+        <v>54385.872237000003</v>
       </c>
       <c r="G12" s="1">
         <v>15.107187</v>
       </c>
       <c r="H12" s="1">
-        <v>1266.900000</v>
+        <v>1266.9000000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-260.460000</v>
+        <v>-260.45999999999998</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>54396.084151</v>
+        <v>54396.084151000003</v>
       </c>
       <c r="L12" s="1">
         <v>15.110023</v>
       </c>
       <c r="M12" s="1">
-        <v>1301.510000</v>
+        <v>1301.51</v>
       </c>
       <c r="N12" s="1">
-        <v>-199.984000</v>
+        <v>-199.98400000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>54406.319320</v>
+        <v>54406.319320000002</v>
       </c>
       <c r="Q12" s="1">
         <v>15.112866</v>
       </c>
       <c r="R12" s="1">
-        <v>1313.280000</v>
+        <v>1313.28</v>
       </c>
       <c r="S12" s="1">
-        <v>-182.294000</v>
+        <v>-182.29400000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>54416.485814</v>
@@ -3111,13 +3527,13 @@
         <v>15.115691</v>
       </c>
       <c r="W12" s="1">
-        <v>1326.080000</v>
+        <v>1326.08</v>
       </c>
       <c r="X12" s="1">
-        <v>-169.008000</v>
+        <v>-169.00800000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>54426.691004</v>
@@ -3126,118 +3542,118 @@
         <v>15.118525</v>
       </c>
       <c r="AB12" s="1">
-        <v>1343.160000</v>
+        <v>1343.16</v>
       </c>
       <c r="AC12" s="1">
-        <v>-167.326000</v>
+        <v>-167.32599999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>54437.191805</v>
+        <v>54437.191805000002</v>
       </c>
       <c r="AF12" s="1">
         <v>15.121442</v>
       </c>
       <c r="AG12" s="1">
-        <v>1356.140000</v>
+        <v>1356.14</v>
       </c>
       <c r="AH12" s="1">
-        <v>-177.113000</v>
+        <v>-177.113</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>54447.738701</v>
+        <v>54447.738701000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>15.124372</v>
+        <v>15.124371999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1376.630000</v>
+        <v>1376.63</v>
       </c>
       <c r="AM12" s="1">
-        <v>-207.027000</v>
+        <v>-207.02699999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>54458.798495</v>
+        <v>54458.798495000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>15.127444</v>
+        <v>15.127444000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1398.220000</v>
+        <v>1398.22</v>
       </c>
       <c r="AR12" s="1">
-        <v>-250.672000</v>
+        <v>-250.672</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>54469.835968</v>
+        <v>54469.835967999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>15.130510</v>
+        <v>15.130509999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1422.800000</v>
+        <v>1422.8</v>
       </c>
       <c r="AW12" s="1">
-        <v>-310.259000</v>
+        <v>-310.25900000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>54480.920561</v>
+        <v>54480.920560999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>15.133589</v>
+        <v>15.133589000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1442.200000</v>
+        <v>1442.2</v>
       </c>
       <c r="BB12" s="1">
-        <v>-361.884000</v>
+        <v>-361.88400000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>54491.913890</v>
+        <v>54491.913890000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>15.136643</v>
+        <v>15.136642999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1527.940000</v>
+        <v>1527.94</v>
       </c>
       <c r="BG12" s="1">
-        <v>-607.707000</v>
+        <v>-607.70699999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>54503.039683</v>
+        <v>54503.039683000003</v>
       </c>
       <c r="BJ12" s="1">
         <v>15.139733</v>
       </c>
       <c r="BK12" s="1">
-        <v>1682.950000</v>
+        <v>1682.95</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1046.810000</v>
+        <v>-1046.81</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>54514.423831</v>
@@ -3246,180 +3662,180 @@
         <v>15.142896</v>
       </c>
       <c r="BP12" s="1">
-        <v>1977.660000</v>
+        <v>1977.66</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1805.380000</v>
+        <v>-1805.38</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>54524.928600</v>
+        <v>54524.928599999999</v>
       </c>
       <c r="BT12" s="1">
         <v>15.145813</v>
       </c>
       <c r="BU12" s="1">
-        <v>2365.670000</v>
+        <v>2365.67</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2680.890000</v>
+        <v>-2680.89</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>54535.788316</v>
+        <v>54535.788315999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>15.148830</v>
+        <v>15.14883</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2847.130000</v>
+        <v>2847.13</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3627.900000</v>
+        <v>-3627.9</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>54547.725256</v>
+        <v>54547.725255999998</v>
       </c>
       <c r="CD12" s="1">
         <v>15.152146</v>
       </c>
       <c r="CE12" s="1">
-        <v>4262.540000</v>
+        <v>4262.54</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5912.070000</v>
+        <v>-5912.07</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>54376.109451</v>
+        <v>54376.109450999997</v>
       </c>
       <c r="B13" s="1">
-        <v>15.104475</v>
+        <v>15.104475000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1242.900000</v>
+        <v>1242.9000000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-301.632000</v>
+        <v>-301.63200000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>54386.258126</v>
+        <v>54386.258126000001</v>
       </c>
       <c r="G13" s="1">
         <v>15.107294</v>
       </c>
       <c r="H13" s="1">
-        <v>1267.700000</v>
+        <v>1267.7</v>
       </c>
       <c r="I13" s="1">
-        <v>-260.782000</v>
+        <v>-260.78199999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>54396.434186</v>
+        <v>54396.434185999999</v>
       </c>
       <c r="L13" s="1">
-        <v>15.110121</v>
+        <v>15.110120999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1301.570000</v>
+        <v>1301.57</v>
       </c>
       <c r="N13" s="1">
-        <v>-199.820000</v>
+        <v>-199.82</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>54406.670451</v>
+        <v>54406.670450999998</v>
       </c>
       <c r="Q13" s="1">
         <v>15.112964</v>
       </c>
       <c r="R13" s="1">
-        <v>1313.190000</v>
+        <v>1313.19</v>
       </c>
       <c r="S13" s="1">
-        <v>-182.205000</v>
+        <v>-182.20500000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>54416.830537</v>
+        <v>54416.830537000002</v>
       </c>
       <c r="V13" s="1">
         <v>15.115786</v>
       </c>
       <c r="W13" s="1">
-        <v>1326.120000</v>
+        <v>1326.12</v>
       </c>
       <c r="X13" s="1">
-        <v>-169.186000</v>
+        <v>-169.18600000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>54427.117560</v>
+        <v>54427.117559999999</v>
       </c>
       <c r="AA13" s="1">
         <v>15.118644</v>
       </c>
       <c r="AB13" s="1">
-        <v>1343.110000</v>
+        <v>1343.11</v>
       </c>
       <c r="AC13" s="1">
-        <v>-167.415000</v>
+        <v>-167.41499999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>54437.612874</v>
+        <v>54437.612873999999</v>
       </c>
       <c r="AF13" s="1">
         <v>15.121559</v>
       </c>
       <c r="AG13" s="1">
-        <v>1356.140000</v>
+        <v>1356.14</v>
       </c>
       <c r="AH13" s="1">
-        <v>-177.181000</v>
+        <v>-177.18100000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>54448.016495</v>
+        <v>54448.016495000003</v>
       </c>
       <c r="AK13" s="1">
         <v>15.124449</v>
       </c>
       <c r="AL13" s="1">
-        <v>1376.650000</v>
+        <v>1376.65</v>
       </c>
       <c r="AM13" s="1">
-        <v>-207.039000</v>
+        <v>-207.03899999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>54459.159086</v>
@@ -3428,345 +3844,345 @@
         <v>15.127544</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1398.260000</v>
+        <v>1398.26</v>
       </c>
       <c r="AR13" s="1">
-        <v>-250.660000</v>
+        <v>-250.66</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>54470.199039</v>
+        <v>54470.199038999999</v>
       </c>
       <c r="AU13" s="1">
         <v>15.130611</v>
       </c>
       <c r="AV13" s="1">
-        <v>1422.780000</v>
+        <v>1422.78</v>
       </c>
       <c r="AW13" s="1">
-        <v>-310.228000</v>
+        <v>-310.22800000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>54481.280656</v>
+        <v>54481.280656000003</v>
       </c>
       <c r="AZ13" s="1">
         <v>15.133689</v>
       </c>
       <c r="BA13" s="1">
-        <v>1442.210000</v>
+        <v>1442.21</v>
       </c>
       <c r="BB13" s="1">
-        <v>-361.895000</v>
+        <v>-361.89499999999998</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>54492.274027</v>
+        <v>54492.274026999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>15.136743</v>
+        <v>15.136742999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1527.960000</v>
+        <v>1527.96</v>
       </c>
       <c r="BG13" s="1">
-        <v>-607.682000</v>
+        <v>-607.68200000000002</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>54503.812418</v>
+        <v>54503.812418000001</v>
       </c>
       <c r="BJ13" s="1">
         <v>15.139948</v>
       </c>
       <c r="BK13" s="1">
-        <v>1682.940000</v>
+        <v>1682.94</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1046.710000</v>
+        <v>-1046.71</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>54514.815670</v>
+        <v>54514.815670000004</v>
       </c>
       <c r="BO13" s="1">
-        <v>15.143004</v>
+        <v>15.143003999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1977.680000</v>
+        <v>1977.68</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1805.220000</v>
+        <v>-1805.22</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>54525.345239</v>
+        <v>54525.345239000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>15.145929</v>
+        <v>15.145929000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2365.640000</v>
+        <v>2365.64</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2680.520000</v>
+        <v>-2680.52</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>54536.211628</v>
+        <v>54536.211627999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>15.148948</v>
+        <v>15.148948000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2847.000000</v>
+        <v>2847</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3628.060000</v>
+        <v>-3628.06</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>54548.554537</v>
+        <v>54548.554537000004</v>
       </c>
       <c r="CD13" s="1">
         <v>15.152376</v>
       </c>
       <c r="CE13" s="1">
-        <v>4250.360000</v>
+        <v>4250.3599999999997</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5908.070000</v>
+        <v>-5908.07</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>54376.455163</v>
+        <v>54376.455162999999</v>
       </c>
       <c r="B14" s="1">
         <v>15.104571</v>
       </c>
       <c r="C14" s="1">
-        <v>1242.980000</v>
+        <v>1242.98</v>
       </c>
       <c r="D14" s="1">
-        <v>-301.823000</v>
+        <v>-301.82299999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>54386.607775</v>
+        <v>54386.607774999997</v>
       </c>
       <c r="G14" s="1">
         <v>15.107391</v>
       </c>
       <c r="H14" s="1">
-        <v>1266.610000</v>
+        <v>1266.6099999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-259.892000</v>
+        <v>-259.892</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>54396.781218</v>
+        <v>54396.781217999996</v>
       </c>
       <c r="L14" s="1">
         <v>15.110217</v>
       </c>
       <c r="M14" s="1">
-        <v>1301.660000</v>
+        <v>1301.6600000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-199.995000</v>
+        <v>-199.995</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>54407.092083</v>
+        <v>54407.092083000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>15.113081</v>
+        <v>15.113080999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1313.230000</v>
+        <v>1313.23</v>
       </c>
       <c r="S14" s="1">
-        <v>-182.155000</v>
+        <v>-182.155</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>54417.252597</v>
+        <v>54417.252596999999</v>
       </c>
       <c r="V14" s="1">
-        <v>15.115903</v>
+        <v>15.115902999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1326.090000</v>
+        <v>1326.09</v>
       </c>
       <c r="X14" s="1">
-        <v>-169.057000</v>
+        <v>-169.05699999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>54427.394297</v>
+        <v>54427.394296999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>15.118721</v>
+        <v>15.118721000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1343.290000</v>
+        <v>1343.29</v>
       </c>
       <c r="AC14" s="1">
-        <v>-167.313000</v>
+        <v>-167.31299999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>54437.888154</v>
       </c>
       <c r="AF14" s="1">
-        <v>15.121636</v>
+        <v>15.121636000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1356.070000</v>
+        <v>1356.07</v>
       </c>
       <c r="AH14" s="1">
-        <v>-177.176000</v>
+        <v>-177.17599999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>54448.365149</v>
+        <v>54448.365148999997</v>
       </c>
       <c r="AK14" s="1">
         <v>15.124546</v>
       </c>
       <c r="AL14" s="1">
-        <v>1376.590000</v>
+        <v>1376.59</v>
       </c>
       <c r="AM14" s="1">
-        <v>-207.026000</v>
+        <v>-207.02600000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>54459.519678</v>
+        <v>54459.519677999997</v>
       </c>
       <c r="AP14" s="1">
         <v>15.127644</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1398.220000</v>
+        <v>1398.22</v>
       </c>
       <c r="AR14" s="1">
-        <v>-250.647000</v>
+        <v>-250.64699999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>54470.563632</v>
+        <v>54470.563631999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>15.130712</v>
+        <v>15.130712000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1422.800000</v>
+        <v>1422.8</v>
       </c>
       <c r="AW14" s="1">
-        <v>-310.232000</v>
+        <v>-310.23200000000003</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>54482.000847</v>
+        <v>54482.000847000003</v>
       </c>
       <c r="AZ14" s="1">
         <v>15.133889</v>
       </c>
       <c r="BA14" s="1">
-        <v>1442.230000</v>
+        <v>1442.23</v>
       </c>
       <c r="BB14" s="1">
-        <v>-361.888000</v>
+        <v>-361.88799999999998</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>54492.996656</v>
+        <v>54492.996656000003</v>
       </c>
       <c r="BE14" s="1">
         <v>15.136944</v>
       </c>
       <c r="BF14" s="1">
-        <v>1527.930000</v>
+        <v>1527.93</v>
       </c>
       <c r="BG14" s="1">
-        <v>-607.681000</v>
+        <v>-607.68100000000004</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>54504.187394</v>
       </c>
       <c r="BJ14" s="1">
-        <v>15.140052</v>
+        <v>15.140052000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1682.860000</v>
+        <v>1682.86</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1046.830000</v>
+        <v>-1046.83</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>54515.236772</v>
+        <v>54515.236771999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>15.143121</v>
+        <v>15.143121000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1977.750000</v>
+        <v>1977.75</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1805.260000</v>
+        <v>-1805.26</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>54525.758941</v>
@@ -3775,861 +4191,861 @@
         <v>15.146044</v>
       </c>
       <c r="BU14" s="1">
-        <v>2366.070000</v>
+        <v>2366.0700000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2680.220000</v>
+        <v>-2680.22</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>54536.943688</v>
+        <v>54536.943687999999</v>
       </c>
       <c r="BY14" s="1">
         <v>15.149151</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2846.800000</v>
+        <v>2846.8</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3628.180000</v>
+        <v>-3628.18</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>54548.782695</v>
+        <v>54548.782695000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>15.152440</v>
+        <v>15.15244</v>
       </c>
       <c r="CE14" s="1">
-        <v>4248.470000</v>
+        <v>4248.47</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5907.580000</v>
+        <v>-5907.58</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>54376.794924</v>
+        <v>54376.794924000002</v>
       </c>
       <c r="B15" s="1">
-        <v>15.104665</v>
+        <v>15.104665000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1243.000000</v>
+        <v>1243</v>
       </c>
       <c r="D15" s="1">
-        <v>-301.868000</v>
+        <v>-301.86799999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>54386.953485</v>
+        <v>54386.953484999998</v>
       </c>
       <c r="G15" s="1">
-        <v>15.107487</v>
+        <v>15.107487000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1267.280000</v>
+        <v>1267.28</v>
       </c>
       <c r="I15" s="1">
-        <v>-260.615000</v>
+        <v>-260.61500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>54397.203311</v>
+        <v>54397.203310999997</v>
       </c>
       <c r="L15" s="1">
         <v>15.110334</v>
       </c>
       <c r="M15" s="1">
-        <v>1301.930000</v>
+        <v>1301.93</v>
       </c>
       <c r="N15" s="1">
-        <v>-200.017000</v>
+        <v>-200.017</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>54407.365844</v>
       </c>
       <c r="Q15" s="1">
-        <v>15.113157</v>
+        <v>15.113156999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1313.240000</v>
+        <v>1313.24</v>
       </c>
       <c r="S15" s="1">
-        <v>-182.155000</v>
+        <v>-182.155</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>54417.522422</v>
+        <v>54417.522422000002</v>
       </c>
       <c r="V15" s="1">
         <v>15.115978</v>
       </c>
       <c r="W15" s="1">
-        <v>1326.270000</v>
+        <v>1326.27</v>
       </c>
       <c r="X15" s="1">
-        <v>-169.086000</v>
+        <v>-169.08600000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>54427.742487</v>
+        <v>54427.742487000003</v>
       </c>
       <c r="AA15" s="1">
         <v>15.118817</v>
       </c>
       <c r="AB15" s="1">
-        <v>1343.330000</v>
+        <v>1343.33</v>
       </c>
       <c r="AC15" s="1">
-        <v>-167.253000</v>
+        <v>-167.25299999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>54438.243321</v>
+        <v>54438.243321000002</v>
       </c>
       <c r="AF15" s="1">
         <v>15.121734</v>
       </c>
       <c r="AG15" s="1">
-        <v>1356.030000</v>
+        <v>1356.03</v>
       </c>
       <c r="AH15" s="1">
-        <v>-177.125000</v>
+        <v>-177.125</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>54448.712986</v>
+        <v>54448.712985999999</v>
       </c>
       <c r="AK15" s="1">
         <v>15.124642</v>
       </c>
       <c r="AL15" s="1">
-        <v>1376.640000</v>
+        <v>1376.64</v>
       </c>
       <c r="AM15" s="1">
-        <v>-207.008000</v>
+        <v>-207.00800000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>54460.239408</v>
+        <v>54460.239408000001</v>
       </c>
       <c r="AP15" s="1">
         <v>15.127844</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1398.240000</v>
+        <v>1398.24</v>
       </c>
       <c r="AR15" s="1">
-        <v>-250.657000</v>
+        <v>-250.65700000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>54471.294206</v>
+        <v>54471.294205999999</v>
       </c>
       <c r="AU15" s="1">
         <v>15.130915</v>
       </c>
       <c r="AV15" s="1">
-        <v>1422.820000</v>
+        <v>1422.82</v>
       </c>
       <c r="AW15" s="1">
-        <v>-310.214000</v>
+        <v>-310.214</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>54482.375328</v>
+        <v>54482.375328000002</v>
       </c>
       <c r="AZ15" s="1">
         <v>15.133993</v>
       </c>
       <c r="BA15" s="1">
-        <v>1442.230000</v>
+        <v>1442.23</v>
       </c>
       <c r="BB15" s="1">
-        <v>-361.882000</v>
+        <v>-361.88200000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>54493.384034</v>
+        <v>54493.384034000002</v>
       </c>
       <c r="BE15" s="1">
         <v>15.137051</v>
       </c>
       <c r="BF15" s="1">
-        <v>1527.940000</v>
+        <v>1527.94</v>
       </c>
       <c r="BG15" s="1">
-        <v>-607.680000</v>
+        <v>-607.67999999999995</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>54504.563890</v>
+        <v>54504.563889999998</v>
       </c>
       <c r="BJ15" s="1">
         <v>15.140157</v>
       </c>
       <c r="BK15" s="1">
-        <v>1682.960000</v>
+        <v>1682.96</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1046.780000</v>
+        <v>-1046.78</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>54515.952029</v>
       </c>
       <c r="BO15" s="1">
-        <v>15.143320</v>
+        <v>15.143319999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1977.630000</v>
+        <v>1977.63</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1805.260000</v>
+        <v>-1805.26</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>54526.507860</v>
+        <v>54526.507859999998</v>
       </c>
       <c r="BT15" s="1">
         <v>15.146252</v>
       </c>
       <c r="BU15" s="1">
-        <v>2366.090000</v>
+        <v>2366.09</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2679.780000</v>
+        <v>-2679.78</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>54537.112855</v>
+        <v>54537.112854999999</v>
       </c>
       <c r="BY15" s="1">
         <v>15.149198</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2846.440000</v>
+        <v>2846.44</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3627.740000</v>
+        <v>-3627.74</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>54549.300550</v>
+        <v>54549.30055</v>
       </c>
       <c r="CD15" s="1">
         <v>15.152583</v>
       </c>
       <c r="CE15" s="1">
-        <v>4264.670000</v>
+        <v>4264.67</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5913.520000</v>
+        <v>-5913.52</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>54377.215035</v>
+        <v>54377.215035000001</v>
       </c>
       <c r="B16" s="1">
         <v>15.104782</v>
       </c>
       <c r="C16" s="1">
-        <v>1243.200000</v>
+        <v>1243.2</v>
       </c>
       <c r="D16" s="1">
-        <v>-301.692000</v>
+        <v>-301.69200000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>54387.386990</v>
+        <v>54387.386989999999</v>
       </c>
       <c r="G16" s="1">
         <v>15.107607</v>
       </c>
       <c r="H16" s="1">
-        <v>1267.430000</v>
+        <v>1267.43</v>
       </c>
       <c r="I16" s="1">
-        <v>-260.212000</v>
+        <v>-260.21199999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>54397.492480</v>
+        <v>54397.492480000001</v>
       </c>
       <c r="L16" s="1">
         <v>15.110415</v>
       </c>
       <c r="M16" s="1">
-        <v>1301.660000</v>
+        <v>1301.6600000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-199.712000</v>
+        <v>-199.71199999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>54407.712546</v>
+        <v>54407.712546000002</v>
       </c>
       <c r="Q16" s="1">
         <v>15.113253</v>
       </c>
       <c r="R16" s="1">
-        <v>1313.250000</v>
+        <v>1313.25</v>
       </c>
       <c r="S16" s="1">
-        <v>-182.112000</v>
+        <v>-182.11199999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>54417.865660</v>
+        <v>54417.865660000003</v>
       </c>
       <c r="V16" s="1">
-        <v>15.116074</v>
+        <v>15.116073999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1326.140000</v>
+        <v>1326.14</v>
       </c>
       <c r="X16" s="1">
-        <v>-169.070000</v>
+        <v>-169.07</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>54428.086743</v>
       </c>
       <c r="AA16" s="1">
-        <v>15.118913</v>
+        <v>15.118912999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1343.330000</v>
+        <v>1343.33</v>
       </c>
       <c r="AC16" s="1">
-        <v>-167.239000</v>
+        <v>-167.239</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>54438.585560</v>
+        <v>54438.58556</v>
       </c>
       <c r="AF16" s="1">
         <v>15.121829</v>
       </c>
       <c r="AG16" s="1">
-        <v>1356.080000</v>
+        <v>1356.08</v>
       </c>
       <c r="AH16" s="1">
-        <v>-177.129000</v>
+        <v>-177.12899999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>54449.411709</v>
       </c>
       <c r="AK16" s="1">
-        <v>15.124837</v>
+        <v>15.124836999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1376.610000</v>
+        <v>1376.61</v>
       </c>
       <c r="AM16" s="1">
-        <v>-207.024000</v>
+        <v>-207.024</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>54460.601947</v>
+        <v>54460.601947000003</v>
       </c>
       <c r="AP16" s="1">
         <v>15.127945</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1398.250000</v>
+        <v>1398.25</v>
       </c>
       <c r="AR16" s="1">
-        <v>-250.658000</v>
+        <v>-250.65799999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>54471.686542</v>
+        <v>54471.686542000003</v>
       </c>
       <c r="AU16" s="1">
         <v>15.131024</v>
       </c>
       <c r="AV16" s="1">
-        <v>1422.850000</v>
+        <v>1422.85</v>
       </c>
       <c r="AW16" s="1">
-        <v>-310.232000</v>
+        <v>-310.23200000000003</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>54482.753278</v>
+        <v>54482.753277999996</v>
       </c>
       <c r="AZ16" s="1">
         <v>15.134098</v>
       </c>
       <c r="BA16" s="1">
-        <v>1442.220000</v>
+        <v>1442.22</v>
       </c>
       <c r="BB16" s="1">
-        <v>-361.904000</v>
+        <v>-361.904</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>54494.058895</v>
+        <v>54494.058895000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>15.137239</v>
+        <v>15.137238999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1527.930000</v>
+        <v>1527.93</v>
       </c>
       <c r="BG16" s="1">
-        <v>-607.617000</v>
+        <v>-607.61699999999996</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>54505.246385</v>
+        <v>54505.246384999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>15.140346</v>
+        <v>15.140345999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1682.920000</v>
+        <v>1682.92</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1046.840000</v>
+        <v>-1046.8399999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>54516.058681</v>
+        <v>54516.058681000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>15.143350</v>
+        <v>15.14335</v>
       </c>
       <c r="BP16" s="1">
-        <v>1977.780000</v>
+        <v>1977.78</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1805.210000</v>
+        <v>-1805.21</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>54526.623428</v>
+        <v>54526.623427999999</v>
       </c>
       <c r="BT16" s="1">
         <v>15.146284</v>
       </c>
       <c r="BU16" s="1">
-        <v>2366.680000</v>
+        <v>2366.6799999999998</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2679.620000</v>
+        <v>-2679.62</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>54537.539415</v>
+        <v>54537.539414999999</v>
       </c>
       <c r="BY16" s="1">
         <v>15.149317</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2846.860000</v>
+        <v>2846.86</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3627.260000</v>
+        <v>-3627.26</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>54549.818343</v>
+        <v>54549.818342999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>15.152727</v>
+        <v>15.152727000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4257.400000</v>
+        <v>4257.3999999999996</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5896.360000</v>
+        <v>-5896.36</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>54377.491306</v>
+        <v>54377.491306000004</v>
       </c>
       <c r="B17" s="1">
-        <v>15.104859</v>
+        <v>15.104858999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1242.920000</v>
+        <v>1242.92</v>
       </c>
       <c r="D17" s="1">
-        <v>-301.624000</v>
+        <v>-301.62400000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>54387.647885</v>
+        <v>54387.647884999998</v>
       </c>
       <c r="G17" s="1">
-        <v>15.107680</v>
+        <v>15.10768</v>
       </c>
       <c r="H17" s="1">
-        <v>1267.150000</v>
+        <v>1267.1500000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-260.241000</v>
+        <v>-260.24099999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>54397.835711</v>
       </c>
       <c r="L17" s="1">
-        <v>15.110510</v>
+        <v>15.11051</v>
       </c>
       <c r="M17" s="1">
-        <v>1301.690000</v>
+        <v>1301.69</v>
       </c>
       <c r="N17" s="1">
-        <v>-200.012000</v>
+        <v>-200.012</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>54408.064737</v>
+        <v>54408.064737000001</v>
       </c>
       <c r="Q17" s="1">
         <v>15.113351</v>
       </c>
       <c r="R17" s="1">
-        <v>1313.260000</v>
+        <v>1313.26</v>
       </c>
       <c r="S17" s="1">
-        <v>-182.256000</v>
+        <v>-182.256</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>54418.210899</v>
+        <v>54418.210898999998</v>
       </c>
       <c r="V17" s="1">
-        <v>15.116170</v>
+        <v>15.11617</v>
       </c>
       <c r="W17" s="1">
-        <v>1326.170000</v>
+        <v>1326.17</v>
       </c>
       <c r="X17" s="1">
-        <v>-169.150000</v>
+        <v>-169.15</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>54428.788054</v>
+        <v>54428.788053999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>15.119108</v>
+        <v>15.119108000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1343.290000</v>
+        <v>1343.29</v>
       </c>
       <c r="AC17" s="1">
-        <v>-167.248000</v>
+        <v>-167.24799999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>54439.275001</v>
+        <v>54439.275001000002</v>
       </c>
       <c r="AF17" s="1">
         <v>15.122021</v>
       </c>
       <c r="AG17" s="1">
-        <v>1356.030000</v>
+        <v>1356.03</v>
       </c>
       <c r="AH17" s="1">
-        <v>-177.126000</v>
+        <v>-177.126</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>54449.758907</v>
+        <v>54449.758907000003</v>
       </c>
       <c r="AK17" s="1">
         <v>15.124933</v>
       </c>
       <c r="AL17" s="1">
-        <v>1376.610000</v>
+        <v>1376.61</v>
       </c>
       <c r="AM17" s="1">
-        <v>-206.997000</v>
+        <v>-206.99700000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>54460.957613</v>
+        <v>54460.957612999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>15.128044</v>
+        <v>15.128043999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1398.240000</v>
+        <v>1398.24</v>
       </c>
       <c r="AR17" s="1">
-        <v>-250.635000</v>
+        <v>-250.63499999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>54472.050636</v>
       </c>
       <c r="AU17" s="1">
-        <v>15.131125</v>
+        <v>15.131125000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1422.810000</v>
+        <v>1422.81</v>
       </c>
       <c r="AW17" s="1">
-        <v>-310.223000</v>
+        <v>-310.22300000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>54483.428335</v>
+        <v>54483.428334999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>15.134286</v>
+        <v>15.134285999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1442.200000</v>
+        <v>1442.2</v>
       </c>
       <c r="BB17" s="1">
-        <v>-361.867000</v>
+        <v>-361.86700000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>54494.468784</v>
+        <v>54494.468783999997</v>
       </c>
       <c r="BE17" s="1">
         <v>15.137352</v>
       </c>
       <c r="BF17" s="1">
-        <v>1527.910000</v>
+        <v>1527.91</v>
       </c>
       <c r="BG17" s="1">
-        <v>-607.702000</v>
+        <v>-607.702</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>54505.357743</v>
       </c>
       <c r="BJ17" s="1">
-        <v>15.140377</v>
+        <v>15.140377000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1682.860000</v>
+        <v>1682.86</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1046.750000</v>
+        <v>-1046.75</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>54516.477762</v>
+        <v>54516.477762000002</v>
       </c>
       <c r="BO17" s="1">
         <v>15.143466</v>
       </c>
       <c r="BP17" s="1">
-        <v>1977.490000</v>
+        <v>1977.49</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1805.370000</v>
+        <v>-1805.37</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>54527.063877</v>
+        <v>54527.063877000001</v>
       </c>
       <c r="BT17" s="1">
         <v>15.146407</v>
       </c>
       <c r="BU17" s="1">
-        <v>2367.160000</v>
+        <v>2367.16</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2679.360000</v>
+        <v>-2679.36</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>54537.988261</v>
+        <v>54537.988260999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>15.149441</v>
+        <v>15.149440999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2847.420000</v>
+        <v>2847.42</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3627.920000</v>
+        <v>-3627.92</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>54550.357524</v>
+        <v>54550.357523999999</v>
       </c>
       <c r="CD17" s="1">
         <v>15.152877</v>
       </c>
       <c r="CE17" s="1">
-        <v>4251.110000</v>
+        <v>4251.1099999999997</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5913.710000</v>
+        <v>-5913.71</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>54377.835769</v>
+        <v>54377.835768999998</v>
       </c>
       <c r="B18" s="1">
-        <v>15.104954</v>
+        <v>15.104953999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1242.880000</v>
+        <v>1242.8800000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-301.746000</v>
+        <v>-301.74599999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>54387.992604</v>
+        <v>54387.992603999999</v>
       </c>
       <c r="G18" s="1">
-        <v>15.107776</v>
+        <v>15.107775999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1267.170000</v>
+        <v>1267.17</v>
       </c>
       <c r="I18" s="1">
-        <v>-261.979000</v>
+        <v>-261.97899999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>54398.181951</v>
+        <v>54398.181950999999</v>
       </c>
       <c r="L18" s="1">
-        <v>15.110606</v>
+        <v>15.110606000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1301.560000</v>
+        <v>1301.56</v>
       </c>
       <c r="N18" s="1">
-        <v>-199.763000</v>
+        <v>-199.76300000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>54408.761584</v>
@@ -4638,103 +5054,103 @@
         <v>15.113545</v>
       </c>
       <c r="R18" s="1">
-        <v>1313.210000</v>
+        <v>1313.21</v>
       </c>
       <c r="S18" s="1">
-        <v>-182.239000</v>
+        <v>-182.239</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>54418.898820</v>
+        <v>54418.898820000002</v>
       </c>
       <c r="V18" s="1">
-        <v>15.116361</v>
+        <v>15.116360999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1326.210000</v>
+        <v>1326.21</v>
       </c>
       <c r="X18" s="1">
-        <v>-169.294000</v>
+        <v>-169.29400000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>54429.131814</v>
       </c>
       <c r="AA18" s="1">
-        <v>15.119203</v>
+        <v>15.119203000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1343.320000</v>
+        <v>1343.32</v>
       </c>
       <c r="AC18" s="1">
-        <v>-167.226000</v>
+        <v>-167.226</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>54439.618695</v>
+        <v>54439.618694999997</v>
       </c>
       <c r="AF18" s="1">
         <v>15.122116</v>
       </c>
       <c r="AG18" s="1">
-        <v>1356.290000</v>
+        <v>1356.29</v>
       </c>
       <c r="AH18" s="1">
-        <v>-177.123000</v>
+        <v>-177.12299999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>54450.121977</v>
+        <v>54450.121977000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>15.125034</v>
+        <v>15.125033999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1376.620000</v>
+        <v>1376.62</v>
       </c>
       <c r="AM18" s="1">
-        <v>-207.015000</v>
+        <v>-207.01499999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>54461.641079</v>
+        <v>54461.641079000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>15.128234</v>
+        <v>15.128234000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1398.220000</v>
+        <v>1398.22</v>
       </c>
       <c r="AR18" s="1">
-        <v>-250.643000</v>
+        <v>-250.643</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>54472.725660</v>
+        <v>54472.725659999996</v>
       </c>
       <c r="AU18" s="1">
         <v>15.131313</v>
       </c>
       <c r="AV18" s="1">
-        <v>1422.790000</v>
+        <v>1422.79</v>
       </c>
       <c r="AW18" s="1">
-        <v>-310.207000</v>
+        <v>-310.20699999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>54483.836573</v>
@@ -4743,392 +5159,392 @@
         <v>15.134399</v>
       </c>
       <c r="BA18" s="1">
-        <v>1442.240000</v>
+        <v>1442.24</v>
       </c>
       <c r="BB18" s="1">
-        <v>-361.890000</v>
+        <v>-361.89</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>54494.857151</v>
+        <v>54494.857150999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>15.137460</v>
+        <v>15.137460000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1527.980000</v>
+        <v>1527.98</v>
       </c>
       <c r="BG18" s="1">
-        <v>-607.632000</v>
+        <v>-607.63199999999995</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>54505.714576</v>
+        <v>54505.714575999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>15.140476</v>
       </c>
       <c r="BK18" s="1">
-        <v>1682.970000</v>
+        <v>1682.97</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1046.790000</v>
+        <v>-1046.79</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>54516.878531</v>
+        <v>54516.878531000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>15.143577</v>
+        <v>15.143577000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1977.470000</v>
+        <v>1977.47</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1805.200000</v>
+        <v>-1805.2</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>54527.475060</v>
+        <v>54527.475059999997</v>
       </c>
       <c r="BT18" s="1">
         <v>15.146521</v>
       </c>
       <c r="BU18" s="1">
-        <v>2366.730000</v>
+        <v>2366.73</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2678.930000</v>
+        <v>-2678.93</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>54538.418821</v>
+        <v>54538.418820999999</v>
       </c>
       <c r="BY18" s="1">
         <v>15.149561</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2847.030000</v>
+        <v>2847.03</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3627.070000</v>
+        <v>-3627.07</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>54550.897637</v>
+        <v>54550.897637000002</v>
       </c>
       <c r="CD18" s="1">
         <v>15.153027</v>
       </c>
       <c r="CE18" s="1">
-        <v>4267.440000</v>
+        <v>4267.4399999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5897.710000</v>
+        <v>-5897.71</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>54378.178302</v>
       </c>
       <c r="B19" s="1">
-        <v>15.105050</v>
+        <v>15.10505</v>
       </c>
       <c r="C19" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-301.554000</v>
+        <v>-301.55399999999997</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>54388.336860</v>
+        <v>54388.336860000003</v>
       </c>
       <c r="G19" s="1">
-        <v>15.107871</v>
+        <v>15.107870999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1267.240000</v>
+        <v>1267.24</v>
       </c>
       <c r="I19" s="1">
-        <v>-260.963000</v>
+        <v>-260.96300000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>54398.877309</v>
+        <v>54398.877309000003</v>
       </c>
       <c r="L19" s="1">
         <v>15.110799</v>
       </c>
       <c r="M19" s="1">
-        <v>1301.480000</v>
+        <v>1301.48</v>
       </c>
       <c r="N19" s="1">
-        <v>-199.430000</v>
+        <v>-199.43</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>54409.107825</v>
+        <v>54409.107824999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>15.113641</v>
+        <v>15.113640999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1313.210000</v>
+        <v>1313.21</v>
       </c>
       <c r="S19" s="1">
-        <v>-182.258000</v>
+        <v>-182.25800000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>54419.240591</v>
+        <v>54419.240591000002</v>
       </c>
       <c r="V19" s="1">
-        <v>15.116456</v>
+        <v>15.116455999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1326.120000</v>
+        <v>1326.12</v>
       </c>
       <c r="X19" s="1">
-        <v>-169.130000</v>
+        <v>-169.13</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>54429.485926</v>
+        <v>54429.485926000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.119302</v>
+        <v>15.119301999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1343.350000</v>
+        <v>1343.35</v>
       </c>
       <c r="AC19" s="1">
-        <v>-167.299000</v>
+        <v>-167.29900000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>54439.959448</v>
+        <v>54439.959448000001</v>
       </c>
       <c r="AF19" s="1">
         <v>15.122211</v>
       </c>
       <c r="AG19" s="1">
-        <v>1356.080000</v>
+        <v>1356.08</v>
       </c>
       <c r="AH19" s="1">
-        <v>-177.113000</v>
+        <v>-177.113</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>54450.783182</v>
+        <v>54450.783181999999</v>
       </c>
       <c r="AK19" s="1">
         <v>15.125218</v>
       </c>
       <c r="AL19" s="1">
-        <v>1376.600000</v>
+        <v>1376.6</v>
       </c>
       <c r="AM19" s="1">
-        <v>-207.013000</v>
+        <v>-207.01300000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>54462.062698</v>
+        <v>54462.062698000002</v>
       </c>
       <c r="AP19" s="1">
         <v>15.128351</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1398.240000</v>
+        <v>1398.24</v>
       </c>
       <c r="AR19" s="1">
-        <v>-250.627000</v>
+        <v>-250.62700000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>54473.177227</v>
       </c>
       <c r="AU19" s="1">
-        <v>15.131438</v>
+        <v>15.131437999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1422.850000</v>
+        <v>1422.85</v>
       </c>
       <c r="AW19" s="1">
-        <v>-310.229000</v>
+        <v>-310.22899999999998</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>54484.211020</v>
+        <v>54484.211020000002</v>
       </c>
       <c r="AZ19" s="1">
         <v>15.134503</v>
       </c>
       <c r="BA19" s="1">
-        <v>1442.210000</v>
+        <v>1442.21</v>
       </c>
       <c r="BB19" s="1">
-        <v>-361.882000</v>
+        <v>-361.88200000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>54495.219230</v>
+        <v>54495.219230000002</v>
       </c>
       <c r="BE19" s="1">
         <v>15.137561</v>
       </c>
       <c r="BF19" s="1">
-        <v>1527.930000</v>
+        <v>1527.93</v>
       </c>
       <c r="BG19" s="1">
-        <v>-607.605000</v>
+        <v>-607.60500000000002</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>54506.092032</v>
       </c>
       <c r="BJ19" s="1">
-        <v>15.140581</v>
+        <v>15.140580999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1682.870000</v>
+        <v>1682.87</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1046.650000</v>
+        <v>-1046.6500000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>54517.305584</v>
+        <v>54517.305584000002</v>
       </c>
       <c r="BO19" s="1">
         <v>15.143696</v>
       </c>
       <c r="BP19" s="1">
-        <v>1977.740000</v>
+        <v>1977.74</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1805.230000</v>
+        <v>-1805.23</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>54527.992921</v>
+        <v>54527.992920999997</v>
       </c>
       <c r="BT19" s="1">
         <v>15.146665</v>
       </c>
       <c r="BU19" s="1">
-        <v>2367.170000</v>
+        <v>2367.17</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2678.570000</v>
+        <v>-2678.57</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>54538.838902</v>
+        <v>54538.838902000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>15.149677</v>
+        <v>15.149677000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2846.910000</v>
+        <v>2846.91</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3627.770000</v>
+        <v>-3627.77</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>54551.439764</v>
+        <v>54551.439764000002</v>
       </c>
       <c r="CD19" s="1">
         <v>15.153178</v>
       </c>
       <c r="CE19" s="1">
-        <v>4246.610000</v>
+        <v>4246.6099999999997</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5904.240000</v>
+        <v>-5904.24</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>54378.859272</v>
+        <v>54378.859272000002</v>
       </c>
       <c r="B20" s="1">
-        <v>15.105239</v>
+        <v>15.105238999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1243.150000</v>
+        <v>1243.1500000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-301.731000</v>
+        <v>-301.73099999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>54389.027754</v>
+        <v>54389.027754000002</v>
       </c>
       <c r="G20" s="1">
         <v>15.108063</v>
       </c>
       <c r="H20" s="1">
-        <v>1267.120000</v>
+        <v>1267.1199999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-260.726000</v>
+        <v>-260.726</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>54399.212109</v>
@@ -5137,193 +5553,193 @@
         <v>15.110892</v>
       </c>
       <c r="M20" s="1">
-        <v>1301.550000</v>
+        <v>1301.55</v>
       </c>
       <c r="N20" s="1">
-        <v>-199.710000</v>
+        <v>-199.71</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>54409.457008</v>
+        <v>54409.457007999998</v>
       </c>
       <c r="Q20" s="1">
         <v>15.113738</v>
       </c>
       <c r="R20" s="1">
-        <v>1313.180000</v>
+        <v>1313.18</v>
       </c>
       <c r="S20" s="1">
-        <v>-182.151000</v>
+        <v>-182.15100000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>54419.585778</v>
+        <v>54419.585778000001</v>
       </c>
       <c r="V20" s="1">
         <v>15.116552</v>
       </c>
       <c r="W20" s="1">
-        <v>1326.050000</v>
+        <v>1326.05</v>
       </c>
       <c r="X20" s="1">
-        <v>-169.152000</v>
+        <v>-169.15199999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>54430.143125</v>
+        <v>54430.143125000002</v>
       </c>
       <c r="AA20" s="1">
         <v>15.119484</v>
       </c>
       <c r="AB20" s="1">
-        <v>1343.310000</v>
+        <v>1343.31</v>
       </c>
       <c r="AC20" s="1">
-        <v>-167.377000</v>
+        <v>-167.37700000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>54440.685133</v>
+        <v>54440.685132999999</v>
       </c>
       <c r="AF20" s="1">
         <v>15.122413</v>
       </c>
       <c r="AG20" s="1">
-        <v>1356.030000</v>
+        <v>1356.03</v>
       </c>
       <c r="AH20" s="1">
-        <v>-177.116000</v>
+        <v>-177.11600000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>54451.154648</v>
+        <v>54451.154648000003</v>
       </c>
       <c r="AK20" s="1">
         <v>15.125321</v>
       </c>
       <c r="AL20" s="1">
-        <v>1376.580000</v>
+        <v>1376.58</v>
       </c>
       <c r="AM20" s="1">
-        <v>-206.986000</v>
+        <v>-206.98599999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>54462.421802</v>
+        <v>54462.421801999997</v>
       </c>
       <c r="AP20" s="1">
         <v>15.128451</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1398.200000</v>
+        <v>1398.2</v>
       </c>
       <c r="AR20" s="1">
-        <v>-250.660000</v>
+        <v>-250.66</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>54473.541082</v>
+        <v>54473.541082000003</v>
       </c>
       <c r="AU20" s="1">
         <v>15.131539</v>
       </c>
       <c r="AV20" s="1">
-        <v>1422.790000</v>
+        <v>1422.79</v>
       </c>
       <c r="AW20" s="1">
-        <v>-310.219000</v>
+        <v>-310.21899999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>54484.592968</v>
+        <v>54484.592967999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.134609</v>
+        <v>15.134608999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1442.210000</v>
+        <v>1442.21</v>
       </c>
       <c r="BB20" s="1">
-        <v>-361.916000</v>
+        <v>-361.916</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>54495.633917</v>
+        <v>54495.633916999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>15.137676</v>
+        <v>15.137676000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1527.900000</v>
+        <v>1527.9</v>
       </c>
       <c r="BG20" s="1">
-        <v>-607.627000</v>
+        <v>-607.62699999999995</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>54506.513135</v>
+        <v>54506.513135000001</v>
       </c>
       <c r="BJ20" s="1">
         <v>15.140698</v>
       </c>
       <c r="BK20" s="1">
-        <v>1682.910000</v>
+        <v>1682.91</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1046.690000</v>
+        <v>-1046.69</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>54517.695936</v>
+        <v>54517.695935999996</v>
       </c>
       <c r="BO20" s="1">
-        <v>15.143804</v>
+        <v>15.143803999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1977.560000</v>
+        <v>1977.56</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1805.030000</v>
+        <v>-1805.03</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>54528.332642</v>
+        <v>54528.332642000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>15.146759</v>
+        <v>15.146758999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2367.180000</v>
+        <v>2367.1799999999998</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2677.970000</v>
+        <v>-2677.97</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>54539.259048</v>
@@ -5332,195 +5748,195 @@
         <v>15.149794</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2847.120000</v>
+        <v>2847.12</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3627.770000</v>
+        <v>-3627.77</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>54551.976435</v>
+        <v>54551.976434999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>15.153327</v>
+        <v>15.153327000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4267.690000</v>
+        <v>4267.6899999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5908.250000</v>
+        <v>-5908.25</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>54379.202245</v>
       </c>
       <c r="B21" s="1">
-        <v>15.105334</v>
+        <v>15.105333999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1243.170000</v>
+        <v>1243.17</v>
       </c>
       <c r="D21" s="1">
-        <v>-301.468000</v>
+        <v>-301.46800000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>54389.371979</v>
+        <v>54389.371979000003</v>
       </c>
       <c r="G21" s="1">
-        <v>15.108159</v>
+        <v>15.108159000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1267.090000</v>
+        <v>1267.0899999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-261.100000</v>
+        <v>-261.10000000000002</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>54399.569260</v>
+        <v>54399.569259999997</v>
       </c>
       <c r="L21" s="1">
         <v>15.110991</v>
       </c>
       <c r="M21" s="1">
-        <v>1301.450000</v>
+        <v>1301.45</v>
       </c>
       <c r="N21" s="1">
-        <v>-199.574000</v>
+        <v>-199.57400000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>54410.125086</v>
       </c>
       <c r="Q21" s="1">
-        <v>15.113924</v>
+        <v>15.113924000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1313.310000</v>
+        <v>1313.31</v>
       </c>
       <c r="S21" s="1">
-        <v>-182.144000</v>
+        <v>-182.14400000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>54420.234546</v>
       </c>
       <c r="V21" s="1">
-        <v>15.116732</v>
+        <v>15.116732000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1326.140000</v>
+        <v>1326.14</v>
       </c>
       <c r="X21" s="1">
-        <v>-169.131000</v>
+        <v>-169.131</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>54430.531287</v>
+        <v>54430.531286999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>15.119592</v>
+        <v>15.119592000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1343.180000</v>
+        <v>1343.18</v>
       </c>
       <c r="AC21" s="1">
-        <v>-167.305000</v>
+        <v>-167.30500000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>54440.992615</v>
+        <v>54440.992615000003</v>
       </c>
       <c r="AF21" s="1">
         <v>15.122498</v>
       </c>
       <c r="AG21" s="1">
-        <v>1356.020000</v>
+        <v>1356.02</v>
       </c>
       <c r="AH21" s="1">
-        <v>-177.200000</v>
+        <v>-177.2</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>54451.502875</v>
+        <v>54451.502874999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>15.125417</v>
+        <v>15.125417000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1376.600000</v>
+        <v>1376.6</v>
       </c>
       <c r="AM21" s="1">
-        <v>-206.959000</v>
+        <v>-206.959</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>54462.780409</v>
+        <v>54462.780408999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>15.128550</v>
+        <v>15.128550000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1398.230000</v>
+        <v>1398.23</v>
       </c>
       <c r="AR21" s="1">
-        <v>-250.644000</v>
+        <v>-250.64400000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>54473.910487</v>
+        <v>54473.910487000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>15.131642</v>
+        <v>15.131641999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1422.830000</v>
+        <v>1422.83</v>
       </c>
       <c r="AW21" s="1">
-        <v>-310.228000</v>
+        <v>-310.22800000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>54485.008624</v>
+        <v>54485.008624000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>15.134725</v>
       </c>
       <c r="BA21" s="1">
-        <v>1442.190000</v>
+        <v>1442.19</v>
       </c>
       <c r="BB21" s="1">
-        <v>-361.891000</v>
+        <v>-361.89100000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>54495.941411</v>
@@ -5529,512 +5945,512 @@
         <v>15.137762</v>
       </c>
       <c r="BF21" s="1">
-        <v>1527.950000</v>
+        <v>1527.95</v>
       </c>
       <c r="BG21" s="1">
-        <v>-607.615000</v>
+        <v>-607.61500000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>54506.842015</v>
+        <v>54506.842015000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>15.140789</v>
       </c>
       <c r="BK21" s="1">
-        <v>1682.930000</v>
+        <v>1682.93</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1046.700000</v>
+        <v>-1046.7</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>54518.116545</v>
+        <v>54518.116544999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>15.143921</v>
+        <v>15.143921000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1977.590000</v>
+        <v>1977.59</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1805.000000</v>
+        <v>-1805</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>54528.742867</v>
+        <v>54528.742867000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>15.146873</v>
+        <v>15.146872999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2367.120000</v>
+        <v>2367.12</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2677.660000</v>
+        <v>-2677.66</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>54539.689539</v>
+        <v>54539.689538999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>15.149914</v>
+        <v>15.149914000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2847.290000</v>
+        <v>2847.29</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3627.280000</v>
+        <v>-3627.28</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>54552.517076</v>
+        <v>54552.517075999996</v>
       </c>
       <c r="CD21" s="1">
-        <v>15.153477</v>
+        <v>15.153477000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4254.270000</v>
+        <v>4254.2700000000004</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5896.490000</v>
+        <v>-5896.49</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>54379.546265</v>
+        <v>54379.546264999997</v>
       </c>
       <c r="B22" s="1">
-        <v>15.105430</v>
+        <v>15.10543</v>
       </c>
       <c r="C22" s="1">
-        <v>1243.090000</v>
+        <v>1243.0899999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-301.471000</v>
+        <v>-301.471</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>54390.023225</v>
+        <v>54390.023224999997</v>
       </c>
       <c r="G22" s="1">
-        <v>15.108340</v>
+        <v>15.10834</v>
       </c>
       <c r="H22" s="1">
-        <v>1267.460000</v>
+        <v>1267.46</v>
       </c>
       <c r="I22" s="1">
-        <v>-260.740000</v>
+        <v>-260.74</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>54400.226925</v>
+        <v>54400.226925000003</v>
       </c>
       <c r="L22" s="1">
         <v>15.111174</v>
       </c>
       <c r="M22" s="1">
-        <v>1301.470000</v>
+        <v>1301.47</v>
       </c>
       <c r="N22" s="1">
-        <v>-199.990000</v>
+        <v>-199.99</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>54410.502574</v>
+        <v>54410.502573999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>15.114028</v>
+        <v>15.114027999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1313.230000</v>
+        <v>1313.23</v>
       </c>
       <c r="S22" s="1">
-        <v>-182.203000</v>
+        <v>-182.203</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>54420.616466</v>
+        <v>54420.616465999999</v>
       </c>
       <c r="V22" s="1">
         <v>15.116838</v>
       </c>
       <c r="W22" s="1">
-        <v>1326.020000</v>
+        <v>1326.02</v>
       </c>
       <c r="X22" s="1">
-        <v>-169.183000</v>
+        <v>-169.18299999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>54430.878691</v>
+        <v>54430.878690999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>15.119689</v>
+        <v>15.119688999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1343.260000</v>
+        <v>1343.26</v>
       </c>
       <c r="AC22" s="1">
-        <v>-167.265000</v>
+        <v>-167.26499999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>54441.334886</v>
+        <v>54441.334885999997</v>
       </c>
       <c r="AF22" s="1">
         <v>15.122593</v>
       </c>
       <c r="AG22" s="1">
-        <v>1356.110000</v>
+        <v>1356.11</v>
       </c>
       <c r="AH22" s="1">
-        <v>-177.080000</v>
+        <v>-177.08</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>54451.853047</v>
+        <v>54451.853046999997</v>
       </c>
       <c r="AK22" s="1">
         <v>15.125515</v>
       </c>
       <c r="AL22" s="1">
-        <v>1376.610000</v>
+        <v>1376.61</v>
       </c>
       <c r="AM22" s="1">
-        <v>-207.013000</v>
+        <v>-207.01300000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>54463.192058</v>
+        <v>54463.192058000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>15.128664</v>
+        <v>15.128664000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1398.230000</v>
+        <v>1398.23</v>
       </c>
       <c r="AR22" s="1">
-        <v>-250.640000</v>
+        <v>-250.64</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>54474.336666</v>
+        <v>54474.336666000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>15.131760</v>
+        <v>15.13176</v>
       </c>
       <c r="AV22" s="1">
-        <v>1422.810000</v>
+        <v>1422.81</v>
       </c>
       <c r="AW22" s="1">
-        <v>-310.212000</v>
+        <v>-310.21199999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>54485.309163</v>
+        <v>54485.309162999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>15.134808</v>
       </c>
       <c r="BA22" s="1">
-        <v>1442.190000</v>
+        <v>1442.19</v>
       </c>
       <c r="BB22" s="1">
-        <v>-361.913000</v>
+        <v>-361.91300000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>54496.300013</v>
       </c>
       <c r="BE22" s="1">
-        <v>15.137861</v>
+        <v>15.137860999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1527.940000</v>
+        <v>1527.94</v>
       </c>
       <c r="BG22" s="1">
-        <v>-607.598000</v>
+        <v>-607.59799999999996</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>54507.241759</v>
+        <v>54507.241758999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>15.140900</v>
+        <v>15.1409</v>
       </c>
       <c r="BK22" s="1">
-        <v>1682.950000</v>
+        <v>1682.95</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1046.780000</v>
+        <v>-1046.78</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>54518.515823</v>
+        <v>54518.515823000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>15.144032</v>
+        <v>15.144031999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1977.480000</v>
+        <v>1977.48</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1805.060000</v>
+        <v>-1805.06</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>54529.178353</v>
+        <v>54529.178353000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>15.146994</v>
+        <v>15.146993999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2367.030000</v>
+        <v>2367.0300000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2677.280000</v>
+        <v>-2677.28</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>54540.105187</v>
+        <v>54540.105187000001</v>
       </c>
       <c r="BY22" s="1">
         <v>15.150029</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2846.730000</v>
+        <v>2846.73</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3627.000000</v>
+        <v>-3627</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>54553.059698</v>
+        <v>54553.059697999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>15.153628</v>
+        <v>15.153627999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4253.670000</v>
+        <v>4253.67</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5913.640000</v>
+        <v>-5913.64</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>54380.193510</v>
+        <v>54380.193509999997</v>
       </c>
       <c r="B23" s="1">
-        <v>15.105609</v>
+        <v>15.105608999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1243.030000</v>
+        <v>1243.03</v>
       </c>
       <c r="D23" s="1">
-        <v>-301.918000</v>
+        <v>-301.91800000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>54390.404185</v>
+        <v>54390.404184999999</v>
       </c>
       <c r="G23" s="1">
-        <v>15.108446</v>
+        <v>15.108446000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1267.240000</v>
+        <v>1267.24</v>
       </c>
       <c r="I23" s="1">
-        <v>-261.861000</v>
+        <v>-261.86099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>54400.605866</v>
+        <v>54400.605865999998</v>
       </c>
       <c r="L23" s="1">
         <v>15.111279</v>
       </c>
       <c r="M23" s="1">
-        <v>1301.450000</v>
+        <v>1301.45</v>
       </c>
       <c r="N23" s="1">
-        <v>-199.741000</v>
+        <v>-199.74100000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>54410.851763</v>
+        <v>54410.851762999999</v>
       </c>
       <c r="Q23" s="1">
         <v>15.114125</v>
       </c>
       <c r="R23" s="1">
-        <v>1313.290000</v>
+        <v>1313.29</v>
       </c>
       <c r="S23" s="1">
-        <v>-182.211000</v>
+        <v>-182.21100000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>54420.958252</v>
+        <v>54420.958251999997</v>
       </c>
       <c r="V23" s="1">
         <v>15.116933</v>
       </c>
       <c r="W23" s="1">
-        <v>1326.220000</v>
+        <v>1326.22</v>
       </c>
       <c r="X23" s="1">
-        <v>-169.093000</v>
+        <v>-169.09299999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>54431.226387</v>
+        <v>54431.226387000002</v>
       </c>
       <c r="AA23" s="1">
         <v>15.119785</v>
       </c>
       <c r="AB23" s="1">
-        <v>1343.190000</v>
+        <v>1343.19</v>
       </c>
       <c r="AC23" s="1">
-        <v>-167.330000</v>
+        <v>-167.33</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>54441.757444</v>
+        <v>54441.757444000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>15.122710</v>
+        <v>15.12271</v>
       </c>
       <c r="AG23" s="1">
-        <v>1356.060000</v>
+        <v>1356.06</v>
       </c>
       <c r="AH23" s="1">
-        <v>-177.159000</v>
+        <v>-177.15899999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>54452.262472</v>
+        <v>54452.262472000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>15.125628</v>
+        <v>15.125628000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1376.600000</v>
+        <v>1376.6</v>
       </c>
       <c r="AM23" s="1">
-        <v>-206.996000</v>
+        <v>-206.99600000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>54463.500570</v>
+        <v>54463.500569999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>15.128750</v>
+        <v>15.12875</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1398.210000</v>
+        <v>1398.21</v>
       </c>
       <c r="AR23" s="1">
-        <v>-250.631000</v>
+        <v>-250.631</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>54474.633804</v>
+        <v>54474.633803999997</v>
       </c>
       <c r="AU23" s="1">
         <v>15.131843</v>
       </c>
       <c r="AV23" s="1">
-        <v>1422.840000</v>
+        <v>1422.84</v>
       </c>
       <c r="AW23" s="1">
-        <v>-310.191000</v>
+        <v>-310.19099999999997</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>54485.670250</v>
+        <v>54485.670250000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>15.134908</v>
+        <v>15.134907999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1442.190000</v>
+        <v>1442.19</v>
       </c>
       <c r="BB23" s="1">
-        <v>-361.899000</v>
+        <v>-361.899</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>54496.663084</v>
@@ -6043,165 +6459,165 @@
         <v>15.137962</v>
       </c>
       <c r="BF23" s="1">
-        <v>1527.940000</v>
+        <v>1527.94</v>
       </c>
       <c r="BG23" s="1">
-        <v>-607.565000</v>
+        <v>-607.56500000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>54507.616734</v>
+        <v>54507.616734000003</v>
       </c>
       <c r="BJ23" s="1">
         <v>15.141005</v>
       </c>
       <c r="BK23" s="1">
-        <v>1682.860000</v>
+        <v>1682.86</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1046.730000</v>
+        <v>-1046.73</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>54518.937918</v>
+        <v>54518.937918000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>15.144149</v>
+        <v>15.144149000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1977.520000</v>
+        <v>1977.52</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1805.150000</v>
+        <v>-1805.15</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>54529.605531</v>
+        <v>54529.605531000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>15.147113</v>
+        <v>15.147112999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2366.970000</v>
+        <v>2366.9699999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2676.500000</v>
+        <v>-2676.5</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>54540.553603</v>
       </c>
       <c r="BY23" s="1">
-        <v>15.150154</v>
+        <v>15.150154000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2846.190000</v>
+        <v>2846.19</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3627.500000</v>
+        <v>-3627.5</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>54553.600368</v>
+        <v>54553.600367999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>15.153778</v>
+        <v>15.153778000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4264.700000</v>
+        <v>4264.7</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5895.720000</v>
+        <v>-5895.72</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>54380.569973</v>
+        <v>54380.569972999998</v>
       </c>
       <c r="B24" s="1">
-        <v>15.105714</v>
+        <v>15.105714000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1243.040000</v>
+        <v>1243.04</v>
       </c>
       <c r="D24" s="1">
-        <v>-301.819000</v>
+        <v>-301.81900000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>54390.750857</v>
+        <v>54390.750856999999</v>
       </c>
       <c r="G24" s="1">
         <v>15.108542</v>
       </c>
       <c r="H24" s="1">
-        <v>1267.500000</v>
+        <v>1267.5</v>
       </c>
       <c r="I24" s="1">
-        <v>-260.794000</v>
+        <v>-260.79399999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>54400.950335</v>
+        <v>54400.950335000001</v>
       </c>
       <c r="L24" s="1">
-        <v>15.111375</v>
+        <v>15.111375000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1301.730000</v>
+        <v>1301.73</v>
       </c>
       <c r="N24" s="1">
-        <v>-199.879000</v>
+        <v>-199.87899999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>54411.202397</v>
+        <v>54411.202397000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>15.114223</v>
+        <v>15.114223000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1313.190000</v>
+        <v>1313.19</v>
       </c>
       <c r="S24" s="1">
-        <v>-182.150000</v>
+        <v>-182.15</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>54421.300479</v>
+        <v>54421.300478999998</v>
       </c>
       <c r="V24" s="1">
-        <v>15.117028</v>
+        <v>15.117027999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1326.200000</v>
+        <v>1326.2</v>
       </c>
       <c r="X24" s="1">
-        <v>-169.136000</v>
+        <v>-169.136</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>54431.642066</v>
@@ -6210,405 +6626,405 @@
         <v>15.119901</v>
       </c>
       <c r="AB24" s="1">
-        <v>1343.460000</v>
+        <v>1343.46</v>
       </c>
       <c r="AC24" s="1">
-        <v>-167.248000</v>
+        <v>-167.24799999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>54442.022804</v>
       </c>
       <c r="AF24" s="1">
-        <v>15.122784</v>
+        <v>15.122783999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1356.100000</v>
+        <v>1356.1</v>
       </c>
       <c r="AH24" s="1">
-        <v>-177.145000</v>
+        <v>-177.14500000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>54452.551383</v>
+        <v>54452.551382999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>15.125709</v>
+        <v>15.125709000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1376.590000</v>
+        <v>1376.59</v>
       </c>
       <c r="AM24" s="1">
-        <v>-206.992000</v>
+        <v>-206.99199999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>54463.861160</v>
+        <v>54463.86116</v>
       </c>
       <c r="AP24" s="1">
-        <v>15.128850</v>
+        <v>15.12885</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1398.230000</v>
+        <v>1398.23</v>
       </c>
       <c r="AR24" s="1">
-        <v>-250.643000</v>
+        <v>-250.643</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>54474.999854</v>
+        <v>54474.999854000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>15.131944</v>
+        <v>15.131944000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1422.820000</v>
+        <v>1422.82</v>
       </c>
       <c r="AW24" s="1">
-        <v>-310.207000</v>
+        <v>-310.20699999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>54486.028858</v>
+        <v>54486.028857999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>15.135008</v>
+        <v>15.135007999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1442.180000</v>
+        <v>1442.18</v>
       </c>
       <c r="BB24" s="1">
-        <v>-361.864000</v>
+        <v>-361.86399999999998</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>54497.382816</v>
+        <v>54497.382815999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>15.138162</v>
+        <v>15.138161999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1527.940000</v>
+        <v>1527.94</v>
       </c>
       <c r="BG24" s="1">
-        <v>-607.623000</v>
+        <v>-607.62300000000005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>54508.367212</v>
+        <v>54508.367211999997</v>
       </c>
       <c r="BJ24" s="1">
         <v>15.141213</v>
       </c>
       <c r="BK24" s="1">
-        <v>1682.910000</v>
+        <v>1682.91</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1046.680000</v>
+        <v>-1046.68</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>54519.331744</v>
+        <v>54519.331744000003</v>
       </c>
       <c r="BO24" s="1">
         <v>15.144259</v>
       </c>
       <c r="BP24" s="1">
-        <v>1977.470000</v>
+        <v>1977.47</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1804.980000</v>
+        <v>-1804.98</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>54530.015073</v>
+        <v>54530.015073000002</v>
       </c>
       <c r="BT24" s="1">
         <v>15.147226</v>
       </c>
       <c r="BU24" s="1">
-        <v>2366.640000</v>
+        <v>2366.64</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2676.170000</v>
+        <v>-2676.17</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>54540.973221</v>
       </c>
       <c r="BY24" s="1">
-        <v>15.150270</v>
+        <v>15.150270000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2846.930000</v>
+        <v>2846.93</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3627.420000</v>
+        <v>-3627.42</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>54554.441589</v>
+        <v>54554.441589000002</v>
       </c>
       <c r="CD24" s="1">
         <v>15.154012</v>
       </c>
       <c r="CE24" s="1">
-        <v>4262.430000</v>
+        <v>4262.43</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5912.880000</v>
+        <v>-5912.88</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>54380.913237</v>
+        <v>54380.913237000001</v>
       </c>
       <c r="B25" s="1">
-        <v>15.105809</v>
+        <v>15.105809000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1242.990000</v>
+        <v>1242.99</v>
       </c>
       <c r="D25" s="1">
-        <v>-301.529000</v>
+        <v>-301.529</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>54391.094620</v>
+        <v>54391.094620000003</v>
       </c>
       <c r="G25" s="1">
         <v>15.108637</v>
       </c>
       <c r="H25" s="1">
-        <v>1267.080000</v>
+        <v>1267.08</v>
       </c>
       <c r="I25" s="1">
-        <v>-260.733000</v>
+        <v>-260.733</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>54401.298315</v>
       </c>
       <c r="L25" s="1">
-        <v>15.111472</v>
+        <v>15.111471999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1301.850000</v>
+        <v>1301.8499999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-199.709000</v>
+        <v>-199.709</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>54411.623502</v>
+        <v>54411.623502000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>15.114340</v>
+        <v>15.11434</v>
       </c>
       <c r="R25" s="1">
-        <v>1313.210000</v>
+        <v>1313.21</v>
       </c>
       <c r="S25" s="1">
-        <v>-182.190000</v>
+        <v>-182.19</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>54421.734447</v>
+        <v>54421.734447000003</v>
       </c>
       <c r="V25" s="1">
         <v>15.117148</v>
       </c>
       <c r="W25" s="1">
-        <v>1326.070000</v>
+        <v>1326.07</v>
       </c>
       <c r="X25" s="1">
-        <v>-169.122000</v>
+        <v>-169.12200000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>54431.935203</v>
+        <v>54431.935203000001</v>
       </c>
       <c r="AA25" s="1">
         <v>15.119982</v>
       </c>
       <c r="AB25" s="1">
-        <v>1343.220000</v>
+        <v>1343.22</v>
       </c>
       <c r="AC25" s="1">
-        <v>-167.241000</v>
+        <v>-167.24100000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>54442.367060</v>
+        <v>54442.367059999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>15.122880</v>
+        <v>15.12288</v>
       </c>
       <c r="AG25" s="1">
-        <v>1356.090000</v>
+        <v>1356.09</v>
       </c>
       <c r="AH25" s="1">
-        <v>-177.091000</v>
+        <v>-177.09100000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>54452.897590</v>
+        <v>54452.89759</v>
       </c>
       <c r="AK25" s="1">
         <v>15.125805</v>
       </c>
       <c r="AL25" s="1">
-        <v>1376.580000</v>
+        <v>1376.58</v>
       </c>
       <c r="AM25" s="1">
-        <v>-207.015000</v>
+        <v>-207.01499999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>54464.222247</v>
+        <v>54464.222246999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>15.128951</v>
+        <v>15.128951000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1398.230000</v>
+        <v>1398.23</v>
       </c>
       <c r="AR25" s="1">
-        <v>-250.620000</v>
+        <v>-250.62</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>54475.392190</v>
+        <v>54475.392189999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>15.132053</v>
+        <v>15.132053000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1422.800000</v>
+        <v>1422.8</v>
       </c>
       <c r="AW25" s="1">
-        <v>-310.198000</v>
+        <v>-310.19799999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>54486.746571</v>
+        <v>54486.746571000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>15.135207</v>
+        <v>15.135206999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1442.230000</v>
+        <v>1442.23</v>
       </c>
       <c r="BB25" s="1">
-        <v>-361.901000</v>
+        <v>-361.90100000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>54497.742380</v>
+        <v>54497.742380000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>15.138262</v>
+        <v>15.138261999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1527.920000</v>
+        <v>1527.92</v>
       </c>
       <c r="BG25" s="1">
-        <v>-607.598000</v>
+        <v>-607.59799999999996</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>54508.747148</v>
+        <v>54508.747148000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>15.141319</v>
+        <v>15.141318999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1682.960000</v>
+        <v>1682.96</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1046.620000</v>
+        <v>-1046.6199999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>54519.753374</v>
       </c>
       <c r="BO25" s="1">
-        <v>15.144376</v>
+        <v>15.144375999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1977.530000</v>
+        <v>1977.53</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1804.950000</v>
+        <v>-1804.95</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>54530.763071</v>
+        <v>54530.763071000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>15.147434</v>
+        <v>15.147434000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2366.350000</v>
+        <v>2366.35</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2675.840000</v>
+        <v>-2675.84</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>54541.711249</v>
@@ -6617,90 +7033,90 @@
         <v>15.150475</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2846.720000</v>
+        <v>2846.72</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3627.300000</v>
+        <v>-3627.3</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>54554.678640</v>
+        <v>54554.678639999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>15.154077</v>
+        <v>15.154076999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4260.440000</v>
+        <v>4260.4399999999996</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5914.960000</v>
+        <v>-5914.96</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>54381.255972</v>
+        <v>54381.255971999999</v>
       </c>
       <c r="B26" s="1">
-        <v>15.105904</v>
+        <v>15.105904000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1243.090000</v>
+        <v>1243.0899999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-301.927000</v>
+        <v>-301.92700000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>54391.524153</v>
+        <v>54391.524152999998</v>
       </c>
       <c r="G26" s="1">
-        <v>15.108757</v>
+        <v>15.108757000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1266.840000</v>
+        <v>1266.8399999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-260.921000</v>
+        <v>-260.92099999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>54401.725833</v>
+        <v>54401.725832999997</v>
       </c>
       <c r="L26" s="1">
-        <v>15.111591</v>
+        <v>15.111591000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1301.650000</v>
+        <v>1301.6500000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-199.841000</v>
+        <v>-199.84100000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>54411.903244</v>
+        <v>54411.903244000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>15.114418</v>
+        <v>15.114418000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1313.220000</v>
+        <v>1313.22</v>
       </c>
       <c r="S26" s="1">
-        <v>-182.163000</v>
+        <v>-182.16300000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>54422.014701</v>
@@ -6709,195 +7125,196 @@
         <v>15.117226</v>
       </c>
       <c r="W26" s="1">
-        <v>1326.270000</v>
+        <v>1326.27</v>
       </c>
       <c r="X26" s="1">
-        <v>-169.331000</v>
+        <v>-169.33099999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>54432.283858</v>
+        <v>54432.283858000003</v>
       </c>
       <c r="AA26" s="1">
         <v>15.120079</v>
       </c>
       <c r="AB26" s="1">
-        <v>1343.170000</v>
+        <v>1343.17</v>
       </c>
       <c r="AC26" s="1">
-        <v>-167.299000</v>
+        <v>-167.29900000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>54442.710260</v>
+        <v>54442.71026</v>
       </c>
       <c r="AF26" s="1">
         <v>15.122975</v>
       </c>
       <c r="AG26" s="1">
-        <v>1356.130000</v>
+        <v>1356.13</v>
       </c>
       <c r="AH26" s="1">
-        <v>-177.078000</v>
+        <v>-177.078</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>54453.250773</v>
       </c>
       <c r="AK26" s="1">
-        <v>15.125903</v>
+        <v>15.125902999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1376.600000</v>
+        <v>1376.6</v>
       </c>
       <c r="AM26" s="1">
-        <v>-207.020000</v>
+        <v>-207.02</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>54464.941478</v>
+        <v>54464.941478000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>15.129150</v>
+        <v>15.129149999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1398.240000</v>
+        <v>1398.24</v>
       </c>
       <c r="AR26" s="1">
-        <v>-250.659000</v>
+        <v>-250.65899999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>54476.095976</v>
+        <v>54476.095975999997</v>
       </c>
       <c r="AU26" s="1">
         <v>15.132249</v>
       </c>
       <c r="AV26" s="1">
-        <v>1422.790000</v>
+        <v>1422.79</v>
       </c>
       <c r="AW26" s="1">
-        <v>-310.230000</v>
+        <v>-310.23</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>54487.100217</v>
+        <v>54487.100216999999</v>
       </c>
       <c r="AZ26" s="1">
         <v>15.135306</v>
       </c>
       <c r="BA26" s="1">
-        <v>1442.200000</v>
+        <v>1442.2</v>
       </c>
       <c r="BB26" s="1">
-        <v>-361.869000</v>
+        <v>-361.86900000000003</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>54498.107434</v>
+        <v>54498.107433999998</v>
       </c>
       <c r="BE26" s="1">
         <v>15.138363</v>
       </c>
       <c r="BF26" s="1">
-        <v>1527.910000</v>
+        <v>1527.91</v>
       </c>
       <c r="BG26" s="1">
-        <v>-607.598000</v>
+        <v>-607.59799999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>54509.119115</v>
+        <v>54509.119115000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>15.141422</v>
       </c>
       <c r="BK26" s="1">
-        <v>1682.870000</v>
+        <v>1682.87</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1046.640000</v>
+        <v>-1046.6400000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>54520.461663</v>
+        <v>54520.461663000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>15.144573</v>
+        <v>15.144572999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1977.520000</v>
+        <v>1977.52</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1805.000000</v>
+        <v>-1805</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>54530.874675</v>
+        <v>54530.874674999999</v>
       </c>
       <c r="BT26" s="1">
         <v>15.147465</v>
       </c>
       <c r="BU26" s="1">
-        <v>2366.090000</v>
+        <v>2366.09</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2675.630000</v>
+        <v>-2675.63</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>54541.876896</v>
+        <v>54541.876896000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>15.150521</v>
+        <v>15.150520999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2846.530000</v>
+        <v>2846.53</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3627.090000</v>
+        <v>-3627.09</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>54555.196002</v>
+        <v>54555.196001999997</v>
       </c>
       <c r="CD26" s="1">
         <v>15.154221</v>
       </c>
       <c r="CE26" s="1">
-        <v>4265.550000</v>
+        <v>4265.55</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5898.050000</v>
+        <v>-5898.05</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>